--- a/InputData/trans/FpUCD/Fare per Unit Cargo Dist.xlsx
+++ b/InputData/trans/FpUCD/Fare per Unit Cargo Dist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\FpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/VA/trans/FpUCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBD32F-1793-4FD4-A7A3-64E1D535AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1789BA-6A5D-944D-B3D8-8EF6D368AA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="615" windowWidth="21600" windowHeight="22305" xr2:uid="{5CB7DE5F-F8DD-4C7C-901C-BE87FF788B57}"/>
+    <workbookView xWindow="7200" yWindow="500" windowWidth="21600" windowHeight="15980" xr2:uid="{5CB7DE5F-F8DD-4C7C-901C-BE87FF788B57}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="FpUCD-passenger" sheetId="2" r:id="rId8"/>
     <sheet name="FpUCD-freight" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="350">
   <si>
     <t>FpUCD Fares per Unit Cargo Distance</t>
   </si>
@@ -1886,7 +1886,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.00000"/>
     <numFmt numFmtId="168" formatCode="\(\R\)\ 0.00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3357,7 +3357,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3933,6 +3933,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3960,14 +3970,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3981,13 +3985,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="87" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="73" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="75" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="76" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="77" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="80" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4017,52 +4060,16 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="90" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="86" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="75" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="76" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="77" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="71" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="72" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="73" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="74" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="87" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="83" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="96" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4098,16 +4105,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="86" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="79" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="83" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="87" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9286,22 +9287,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3168012A-7293-4AC1-A8AA-296A541E4584}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="231">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9309,82 +9316,82 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" s="31">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="187" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="31">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="32" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>348</v>
       </c>
@@ -9405,57 +9412,57 @@
       <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="35" style="26" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="26" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="27" customWidth="1"/>
-    <col min="15" max="37" width="5.7109375" style="26" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="26"/>
+    <col min="2" max="13" width="5.6640625" style="26" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="27" customWidth="1"/>
+    <col min="15" max="37" width="5.6640625" style="26" customWidth="1"/>
+    <col min="38" max="16384" width="9.1640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="232" t="s">
+    <row r="1" spans="1:37" s="3" customFormat="1" ht="17" thickBot="1">
+      <c r="A1" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="232"/>
-      <c r="AB1" s="232"/>
-      <c r="AC1" s="232"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="232"/>
-    </row>
-    <row r="2" spans="1:37" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+    </row>
+    <row r="2" spans="1:37" s="6" customFormat="1" ht="14">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1960</v>
@@ -9566,7 +9573,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="10" customFormat="1" ht="14">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -9679,7 +9686,7 @@
         <v>18.616702094984799</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" s="13" customFormat="1" ht="14">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -9792,7 +9799,7 @@
         <v>105.34592767210465</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" s="10" customFormat="1" ht="14">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -9905,7 +9912,7 @@
         <v>26.009379846013946</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" s="13" customFormat="1" ht="14">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -10018,7 +10025,7 @@
         <v>181.3210408150043</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" s="10" customFormat="1" ht="16">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
@@ -10131,7 +10138,7 @@
         <v>41.729932119999027</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" s="13" customFormat="1" ht="14">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
@@ -10244,7 +10251,7 @@
         <v>297.33775771479765</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" s="10" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -10357,783 +10364,783 @@
         <v>195.60596786534049</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="233" t="s">
+    <row r="10" spans="1:37" s="23" customFormat="1" ht="12">
+      <c r="A10" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="233"/>
-      <c r="S10" s="233"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="233"/>
-      <c r="W10" s="233"/>
-      <c r="X10" s="233"/>
-      <c r="Y10" s="233"/>
-      <c r="Z10" s="233"/>
-      <c r="AA10" s="233"/>
-      <c r="AB10" s="233"/>
-      <c r="AC10" s="233"/>
-      <c r="AD10" s="233"/>
-      <c r="AE10" s="233"/>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="233"/>
-    </row>
-    <row r="11" spans="1:37" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="234"/>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="234"/>
-      <c r="Q11" s="234"/>
-      <c r="R11" s="234"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="234"/>
-      <c r="U11" s="234"/>
-      <c r="V11" s="234"/>
-      <c r="W11" s="234"/>
-      <c r="X11" s="234"/>
-      <c r="Y11" s="234"/>
-      <c r="Z11" s="234"/>
-      <c r="AA11" s="234"/>
-      <c r="AB11" s="234"/>
-      <c r="AC11" s="234"/>
-      <c r="AD11" s="234"/>
-      <c r="AE11" s="234"/>
-      <c r="AF11" s="234"/>
-      <c r="AG11" s="234"/>
-    </row>
-    <row r="12" spans="1:37" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="235" t="s">
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="237"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="237"/>
+      <c r="S10" s="237"/>
+      <c r="T10" s="237"/>
+      <c r="U10" s="237"/>
+      <c r="V10" s="237"/>
+      <c r="W10" s="237"/>
+      <c r="X10" s="237"/>
+      <c r="Y10" s="237"/>
+      <c r="Z10" s="237"/>
+      <c r="AA10" s="237"/>
+      <c r="AB10" s="237"/>
+      <c r="AC10" s="237"/>
+      <c r="AD10" s="237"/>
+      <c r="AE10" s="237"/>
+      <c r="AF10" s="237"/>
+      <c r="AG10" s="237"/>
+    </row>
+    <row r="11" spans="1:37" s="23" customFormat="1" ht="12">
+      <c r="A11" s="238"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="238"/>
+      <c r="AF11" s="238"/>
+      <c r="AG11" s="238"/>
+    </row>
+    <row r="12" spans="1:37" s="24" customFormat="1">
+      <c r="A12" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="235"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="235"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="235"/>
-      <c r="V12" s="235"/>
-      <c r="W12" s="235"/>
-      <c r="X12" s="235"/>
-      <c r="Y12" s="235"/>
-      <c r="Z12" s="235"/>
-      <c r="AA12" s="235"/>
-      <c r="AB12" s="235"/>
-      <c r="AC12" s="235"/>
-      <c r="AD12" s="235"/>
-      <c r="AE12" s="235"/>
-      <c r="AF12" s="235"/>
-      <c r="AG12" s="235"/>
-    </row>
-    <row r="13" spans="1:37" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="235"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="235"/>
-      <c r="L13" s="235"/>
-      <c r="M13" s="235"/>
-      <c r="N13" s="235"/>
-      <c r="O13" s="235"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="235"/>
-      <c r="U13" s="235"/>
-      <c r="V13" s="235"/>
-      <c r="W13" s="235"/>
-      <c r="X13" s="235"/>
-      <c r="Y13" s="235"/>
-      <c r="Z13" s="235"/>
-      <c r="AA13" s="235"/>
-      <c r="AB13" s="235"/>
-      <c r="AC13" s="235"/>
-      <c r="AD13" s="235"/>
-      <c r="AE13" s="235"/>
-      <c r="AF13" s="235"/>
-      <c r="AG13" s="235"/>
-    </row>
-    <row r="14" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="236" t="s">
+      <c r="B12" s="239"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="239"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="239"/>
+      <c r="R12" s="239"/>
+      <c r="S12" s="239"/>
+      <c r="T12" s="239"/>
+      <c r="U12" s="239"/>
+      <c r="V12" s="239"/>
+      <c r="W12" s="239"/>
+      <c r="X12" s="239"/>
+      <c r="Y12" s="239"/>
+      <c r="Z12" s="239"/>
+      <c r="AA12" s="239"/>
+      <c r="AB12" s="239"/>
+      <c r="AC12" s="239"/>
+      <c r="AD12" s="239"/>
+      <c r="AE12" s="239"/>
+      <c r="AF12" s="239"/>
+      <c r="AG12" s="239"/>
+    </row>
+    <row r="13" spans="1:37" s="24" customFormat="1">
+      <c r="A13" s="239"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="239"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="239"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="239"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="239"/>
+      <c r="R13" s="239"/>
+      <c r="S13" s="239"/>
+      <c r="T13" s="239"/>
+      <c r="U13" s="239"/>
+      <c r="V13" s="239"/>
+      <c r="W13" s="239"/>
+      <c r="X13" s="239"/>
+      <c r="Y13" s="239"/>
+      <c r="Z13" s="239"/>
+      <c r="AA13" s="239"/>
+      <c r="AB13" s="239"/>
+      <c r="AC13" s="239"/>
+      <c r="AD13" s="239"/>
+      <c r="AE13" s="239"/>
+      <c r="AF13" s="239"/>
+      <c r="AG13" s="239"/>
+    </row>
+    <row r="14" spans="1:37" s="24" customFormat="1" ht="12">
+      <c r="A14" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="236"/>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="236"/>
-      <c r="W14" s="236"/>
-      <c r="X14" s="236"/>
-      <c r="Y14" s="236"/>
-      <c r="Z14" s="236"/>
-      <c r="AA14" s="236"/>
-      <c r="AB14" s="236"/>
-      <c r="AC14" s="236"/>
-      <c r="AD14" s="236"/>
-      <c r="AE14" s="236"/>
-      <c r="AF14" s="236"/>
-      <c r="AG14" s="236"/>
-    </row>
-    <row r="15" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="237" t="s">
+      <c r="B14" s="240"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
+      <c r="N14" s="240"/>
+      <c r="O14" s="240"/>
+      <c r="P14" s="240"/>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="240"/>
+      <c r="S14" s="240"/>
+      <c r="T14" s="240"/>
+      <c r="U14" s="240"/>
+      <c r="V14" s="240"/>
+      <c r="W14" s="240"/>
+      <c r="X14" s="240"/>
+      <c r="Y14" s="240"/>
+      <c r="Z14" s="240"/>
+      <c r="AA14" s="240"/>
+      <c r="AB14" s="240"/>
+      <c r="AC14" s="240"/>
+      <c r="AD14" s="240"/>
+      <c r="AE14" s="240"/>
+      <c r="AF14" s="240"/>
+      <c r="AG14" s="240"/>
+    </row>
+    <row r="15" spans="1:37" s="24" customFormat="1" ht="12">
+      <c r="A15" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="237"/>
-      <c r="P15" s="237"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="237"/>
-      <c r="S15" s="237"/>
-      <c r="T15" s="237"/>
-      <c r="U15" s="237"/>
-      <c r="V15" s="237"/>
-      <c r="W15" s="237"/>
-      <c r="X15" s="237"/>
-      <c r="Y15" s="237"/>
-      <c r="Z15" s="237"/>
-      <c r="AA15" s="237"/>
-      <c r="AB15" s="237"/>
-      <c r="AC15" s="237"/>
-      <c r="AD15" s="237"/>
-      <c r="AE15" s="237"/>
-      <c r="AF15" s="237"/>
-      <c r="AG15" s="237"/>
-    </row>
-    <row r="16" spans="1:37" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="237" t="s">
+      <c r="B15" s="241"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="241"/>
+      <c r="L15" s="241"/>
+      <c r="M15" s="241"/>
+      <c r="N15" s="241"/>
+      <c r="O15" s="241"/>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="241"/>
+      <c r="R15" s="241"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="241"/>
+      <c r="U15" s="241"/>
+      <c r="V15" s="241"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="241"/>
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
+      <c r="AD15" s="241"/>
+      <c r="AE15" s="241"/>
+      <c r="AF15" s="241"/>
+      <c r="AG15" s="241"/>
+    </row>
+    <row r="16" spans="1:37" s="24" customFormat="1" ht="12">
+      <c r="A16" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="237"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
-      <c r="Z16" s="237"/>
-      <c r="AA16" s="237"/>
-      <c r="AB16" s="237"/>
-      <c r="AC16" s="237"/>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="237"/>
-      <c r="AF16" s="237"/>
-      <c r="AG16" s="237"/>
-    </row>
-    <row r="17" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="238"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="238"/>
-      <c r="O17" s="238"/>
-      <c r="P17" s="238"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="238"/>
-      <c r="S17" s="238"/>
-      <c r="T17" s="238"/>
-      <c r="U17" s="238"/>
-      <c r="V17" s="238"/>
-      <c r="W17" s="238"/>
-      <c r="X17" s="238"/>
-      <c r="Y17" s="238"/>
-      <c r="Z17" s="238"/>
-      <c r="AA17" s="238"/>
-      <c r="AB17" s="238"/>
-      <c r="AC17" s="238"/>
-      <c r="AD17" s="238"/>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="238"/>
-      <c r="AG17" s="238"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="241"/>
+      <c r="N16" s="241"/>
+      <c r="O16" s="241"/>
+      <c r="P16" s="241"/>
+      <c r="Q16" s="241"/>
+      <c r="R16" s="241"/>
+      <c r="S16" s="241"/>
+      <c r="T16" s="241"/>
+      <c r="U16" s="241"/>
+      <c r="V16" s="241"/>
+      <c r="W16" s="241"/>
+      <c r="X16" s="241"/>
+      <c r="Y16" s="241"/>
+      <c r="Z16" s="241"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
+      <c r="AD16" s="241"/>
+      <c r="AE16" s="241"/>
+      <c r="AF16" s="241"/>
+      <c r="AG16" s="241"/>
+    </row>
+    <row r="17" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A17" s="242"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="242"/>
+      <c r="O17" s="242"/>
+      <c r="P17" s="242"/>
+      <c r="Q17" s="242"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="242"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="242"/>
+      <c r="W17" s="242"/>
+      <c r="X17" s="242"/>
+      <c r="Y17" s="242"/>
+      <c r="Z17" s="242"/>
+      <c r="AA17" s="242"/>
+      <c r="AB17" s="242"/>
+      <c r="AC17" s="242"/>
+      <c r="AD17" s="242"/>
+      <c r="AE17" s="242"/>
+      <c r="AF17" s="242"/>
+      <c r="AG17" s="242"/>
       <c r="AH17" s="25"/>
       <c r="AI17" s="25"/>
     </row>
-    <row r="18" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="239" t="s">
+    <row r="18" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A18" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="239"/>
-      <c r="M18" s="239"/>
-      <c r="N18" s="239"/>
-      <c r="O18" s="239"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="239"/>
-      <c r="S18" s="239"/>
-      <c r="T18" s="239"/>
-      <c r="U18" s="239"/>
-      <c r="V18" s="239"/>
-      <c r="W18" s="239"/>
-      <c r="X18" s="239"/>
-      <c r="Y18" s="239"/>
-      <c r="Z18" s="239"/>
-      <c r="AA18" s="239"/>
-      <c r="AB18" s="239"/>
-      <c r="AC18" s="239"/>
-      <c r="AD18" s="239"/>
-      <c r="AE18" s="239"/>
-      <c r="AF18" s="239"/>
-      <c r="AG18" s="239"/>
-    </row>
-    <row r="19" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="240" t="s">
+      <c r="B18" s="243"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="243"/>
+      <c r="N18" s="243"/>
+      <c r="O18" s="243"/>
+      <c r="P18" s="243"/>
+      <c r="Q18" s="243"/>
+      <c r="R18" s="243"/>
+      <c r="S18" s="243"/>
+      <c r="T18" s="243"/>
+      <c r="U18" s="243"/>
+      <c r="V18" s="243"/>
+      <c r="W18" s="243"/>
+      <c r="X18" s="243"/>
+      <c r="Y18" s="243"/>
+      <c r="Z18" s="243"/>
+      <c r="AA18" s="243"/>
+      <c r="AB18" s="243"/>
+      <c r="AC18" s="243"/>
+      <c r="AD18" s="243"/>
+      <c r="AE18" s="243"/>
+      <c r="AF18" s="243"/>
+      <c r="AG18" s="243"/>
+    </row>
+    <row r="19" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A19" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="240"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="240"/>
-      <c r="K19" s="240"/>
-      <c r="L19" s="240"/>
-      <c r="M19" s="240"/>
-      <c r="N19" s="240"/>
-      <c r="O19" s="240"/>
-      <c r="P19" s="240"/>
-      <c r="Q19" s="240"/>
-      <c r="R19" s="240"/>
-      <c r="S19" s="240"/>
-      <c r="T19" s="240"/>
-      <c r="U19" s="240"/>
-      <c r="V19" s="240"/>
-      <c r="W19" s="240"/>
-      <c r="X19" s="240"/>
-      <c r="Y19" s="240"/>
-      <c r="Z19" s="240"/>
-      <c r="AA19" s="240"/>
-      <c r="AB19" s="240"/>
-      <c r="AC19" s="240"/>
-      <c r="AD19" s="240"/>
-      <c r="AE19" s="240"/>
-      <c r="AF19" s="240"/>
-      <c r="AG19" s="240"/>
-    </row>
-    <row r="20" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="231" t="s">
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="233"/>
+      <c r="W19" s="233"/>
+      <c r="X19" s="233"/>
+      <c r="Y19" s="233"/>
+      <c r="Z19" s="233"/>
+      <c r="AA19" s="233"/>
+      <c r="AB19" s="233"/>
+      <c r="AC19" s="233"/>
+      <c r="AD19" s="233"/>
+      <c r="AE19" s="233"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="233"/>
+    </row>
+    <row r="20" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A20" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="231"/>
-      <c r="R20" s="231"/>
-      <c r="S20" s="231"/>
-      <c r="T20" s="231"/>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="231"/>
-      <c r="AA20" s="231"/>
-      <c r="AB20" s="231"/>
-      <c r="AC20" s="231"/>
-      <c r="AD20" s="231"/>
-      <c r="AE20" s="231"/>
-      <c r="AF20" s="231"/>
-      <c r="AG20" s="231"/>
-    </row>
-    <row r="21" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="242" t="s">
+      <c r="B20" s="235"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="235"/>
+      <c r="O20" s="235"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="235"/>
+      <c r="U20" s="235"/>
+      <c r="V20" s="235"/>
+      <c r="W20" s="235"/>
+      <c r="X20" s="235"/>
+      <c r="Y20" s="235"/>
+      <c r="Z20" s="235"/>
+      <c r="AA20" s="235"/>
+      <c r="AB20" s="235"/>
+      <c r="AC20" s="235"/>
+      <c r="AD20" s="235"/>
+      <c r="AE20" s="235"/>
+      <c r="AF20" s="235"/>
+      <c r="AG20" s="235"/>
+    </row>
+    <row r="21" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A21" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
-      <c r="H21" s="242"/>
-      <c r="I21" s="242"/>
-      <c r="J21" s="242"/>
-      <c r="K21" s="242"/>
-      <c r="L21" s="242"/>
-      <c r="M21" s="242"/>
-      <c r="N21" s="242"/>
-      <c r="O21" s="242"/>
-      <c r="P21" s="242"/>
-      <c r="Q21" s="242"/>
-      <c r="R21" s="242"/>
-      <c r="S21" s="242"/>
-      <c r="T21" s="242"/>
-      <c r="U21" s="242"/>
-      <c r="V21" s="242"/>
-      <c r="W21" s="242"/>
-      <c r="X21" s="242"/>
-      <c r="Y21" s="242"/>
-      <c r="Z21" s="242"/>
-      <c r="AA21" s="242"/>
-      <c r="AB21" s="242"/>
-      <c r="AC21" s="242"/>
-      <c r="AD21" s="242"/>
-      <c r="AE21" s="242"/>
-      <c r="AF21" s="242"/>
-      <c r="AG21" s="242"/>
-    </row>
-    <row r="22" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="241" t="s">
+      <c r="B21" s="234"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="234"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="234"/>
+      <c r="P21" s="234"/>
+      <c r="Q21" s="234"/>
+      <c r="R21" s="234"/>
+      <c r="S21" s="234"/>
+      <c r="T21" s="234"/>
+      <c r="U21" s="234"/>
+      <c r="V21" s="234"/>
+      <c r="W21" s="234"/>
+      <c r="X21" s="234"/>
+      <c r="Y21" s="234"/>
+      <c r="Z21" s="234"/>
+      <c r="AA21" s="234"/>
+      <c r="AB21" s="234"/>
+      <c r="AC21" s="234"/>
+      <c r="AD21" s="234"/>
+      <c r="AE21" s="234"/>
+      <c r="AF21" s="234"/>
+      <c r="AG21" s="234"/>
+    </row>
+    <row r="22" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A22" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="241"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="241"/>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="241"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="241"/>
-      <c r="V22" s="241"/>
-      <c r="W22" s="241"/>
-      <c r="X22" s="241"/>
-      <c r="Y22" s="241"/>
-      <c r="Z22" s="241"/>
-      <c r="AA22" s="241"/>
-      <c r="AB22" s="241"/>
-      <c r="AC22" s="241"/>
-      <c r="AD22" s="241"/>
-      <c r="AE22" s="241"/>
-      <c r="AF22" s="241"/>
-      <c r="AG22" s="241"/>
-    </row>
-    <row r="23" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="241" t="s">
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="232"/>
+      <c r="Q22" s="232"/>
+      <c r="R22" s="232"/>
+      <c r="S22" s="232"/>
+      <c r="T22" s="232"/>
+      <c r="U22" s="232"/>
+      <c r="V22" s="232"/>
+      <c r="W22" s="232"/>
+      <c r="X22" s="232"/>
+      <c r="Y22" s="232"/>
+      <c r="Z22" s="232"/>
+      <c r="AA22" s="232"/>
+      <c r="AB22" s="232"/>
+      <c r="AC22" s="232"/>
+      <c r="AD22" s="232"/>
+      <c r="AE22" s="232"/>
+      <c r="AF22" s="232"/>
+      <c r="AG22" s="232"/>
+    </row>
+    <row r="23" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A23" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="241"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="241"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="241"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="241"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="241"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="241"/>
-      <c r="AD23" s="241"/>
-      <c r="AE23" s="241"/>
-      <c r="AF23" s="241"/>
-      <c r="AG23" s="241"/>
-    </row>
-    <row r="24" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="240" t="s">
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="232"/>
+      <c r="S23" s="232"/>
+      <c r="T23" s="232"/>
+      <c r="U23" s="232"/>
+      <c r="V23" s="232"/>
+      <c r="W23" s="232"/>
+      <c r="X23" s="232"/>
+      <c r="Y23" s="232"/>
+      <c r="Z23" s="232"/>
+      <c r="AA23" s="232"/>
+      <c r="AB23" s="232"/>
+      <c r="AC23" s="232"/>
+      <c r="AD23" s="232"/>
+      <c r="AE23" s="232"/>
+      <c r="AF23" s="232"/>
+      <c r="AG23" s="232"/>
+    </row>
+    <row r="24" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A24" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="240"/>
-      <c r="E24" s="240"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="240"/>
-      <c r="K24" s="240"/>
-      <c r="L24" s="240"/>
-      <c r="M24" s="240"/>
-      <c r="N24" s="240"/>
-      <c r="O24" s="240"/>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="240"/>
-      <c r="R24" s="240"/>
-      <c r="S24" s="240"/>
-      <c r="T24" s="240"/>
-      <c r="U24" s="240"/>
-      <c r="V24" s="240"/>
-      <c r="W24" s="240"/>
-      <c r="X24" s="240"/>
-      <c r="Y24" s="240"/>
-      <c r="Z24" s="240"/>
-      <c r="AA24" s="240"/>
-      <c r="AB24" s="240"/>
-      <c r="AC24" s="240"/>
-      <c r="AD24" s="240"/>
-      <c r="AE24" s="240"/>
-      <c r="AF24" s="240"/>
-      <c r="AG24" s="240"/>
-    </row>
-    <row r="25" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="241" t="s">
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="233"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="233"/>
+      <c r="N24" s="233"/>
+      <c r="O24" s="233"/>
+      <c r="P24" s="233"/>
+      <c r="Q24" s="233"/>
+      <c r="R24" s="233"/>
+      <c r="S24" s="233"/>
+      <c r="T24" s="233"/>
+      <c r="U24" s="233"/>
+      <c r="V24" s="233"/>
+      <c r="W24" s="233"/>
+      <c r="X24" s="233"/>
+      <c r="Y24" s="233"/>
+      <c r="Z24" s="233"/>
+      <c r="AA24" s="233"/>
+      <c r="AB24" s="233"/>
+      <c r="AC24" s="233"/>
+      <c r="AD24" s="233"/>
+      <c r="AE24" s="233"/>
+      <c r="AF24" s="233"/>
+      <c r="AG24" s="233"/>
+    </row>
+    <row r="25" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A25" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="241"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="241"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="241"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="241"/>
-      <c r="AF25" s="241"/>
-      <c r="AG25" s="241"/>
-    </row>
-    <row r="26" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="241" t="s">
+      <c r="B25" s="232"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="232"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="232"/>
+      <c r="O25" s="232"/>
+      <c r="P25" s="232"/>
+      <c r="Q25" s="232"/>
+      <c r="R25" s="232"/>
+      <c r="S25" s="232"/>
+      <c r="T25" s="232"/>
+      <c r="U25" s="232"/>
+      <c r="V25" s="232"/>
+      <c r="W25" s="232"/>
+      <c r="X25" s="232"/>
+      <c r="Y25" s="232"/>
+      <c r="Z25" s="232"/>
+      <c r="AA25" s="232"/>
+      <c r="AB25" s="232"/>
+      <c r="AC25" s="232"/>
+      <c r="AD25" s="232"/>
+      <c r="AE25" s="232"/>
+      <c r="AF25" s="232"/>
+      <c r="AG25" s="232"/>
+    </row>
+    <row r="26" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A26" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="241"/>
-      <c r="O26" s="241"/>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="241"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
-      <c r="X26" s="241"/>
-      <c r="Y26" s="241"/>
-      <c r="Z26" s="241"/>
-      <c r="AA26" s="241"/>
-      <c r="AB26" s="241"/>
-      <c r="AC26" s="241"/>
-      <c r="AD26" s="241"/>
-      <c r="AE26" s="241"/>
-      <c r="AF26" s="241"/>
-      <c r="AG26" s="241"/>
-    </row>
-    <row r="27" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="241" t="s">
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="232"/>
+      <c r="O26" s="232"/>
+      <c r="P26" s="232"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="232"/>
+      <c r="S26" s="232"/>
+      <c r="T26" s="232"/>
+      <c r="U26" s="232"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="232"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="232"/>
+      <c r="AA26" s="232"/>
+      <c r="AB26" s="232"/>
+      <c r="AC26" s="232"/>
+      <c r="AD26" s="232"/>
+      <c r="AE26" s="232"/>
+      <c r="AF26" s="232"/>
+      <c r="AG26" s="232"/>
+    </row>
+    <row r="27" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A27" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="241"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="241"/>
-      <c r="V27" s="241"/>
-      <c r="W27" s="241"/>
-      <c r="X27" s="241"/>
-      <c r="Y27" s="241"/>
-      <c r="Z27" s="241"/>
-      <c r="AA27" s="241"/>
-      <c r="AB27" s="241"/>
-      <c r="AC27" s="241"/>
-      <c r="AD27" s="241"/>
-      <c r="AE27" s="241"/>
-      <c r="AF27" s="241"/>
-      <c r="AG27" s="241"/>
-    </row>
-    <row r="28" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="241" t="s">
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="232"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="232"/>
+      <c r="U27" s="232"/>
+      <c r="V27" s="232"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="232"/>
+      <c r="Y27" s="232"/>
+      <c r="Z27" s="232"/>
+      <c r="AA27" s="232"/>
+      <c r="AB27" s="232"/>
+      <c r="AC27" s="232"/>
+      <c r="AD27" s="232"/>
+      <c r="AE27" s="232"/>
+      <c r="AF27" s="232"/>
+      <c r="AG27" s="232"/>
+    </row>
+    <row r="28" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A28" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="241"/>
-      <c r="O28" s="241"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="241"/>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="241"/>
-      <c r="Z28" s="241"/>
-      <c r="AA28" s="241"/>
-      <c r="AB28" s="241"/>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="241"/>
-      <c r="AE28" s="241"/>
-      <c r="AF28" s="241"/>
-      <c r="AG28" s="241"/>
-    </row>
-    <row r="29" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="240" t="s">
+      <c r="B28" s="232"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="232"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="232"/>
+      <c r="N28" s="232"/>
+      <c r="O28" s="232"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="232"/>
+      <c r="U28" s="232"/>
+      <c r="V28" s="232"/>
+      <c r="W28" s="232"/>
+      <c r="X28" s="232"/>
+      <c r="Y28" s="232"/>
+      <c r="Z28" s="232"/>
+      <c r="AA28" s="232"/>
+      <c r="AB28" s="232"/>
+      <c r="AC28" s="232"/>
+      <c r="AD28" s="232"/>
+      <c r="AE28" s="232"/>
+      <c r="AF28" s="232"/>
+      <c r="AG28" s="232"/>
+    </row>
+    <row r="29" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A29" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="240"/>
-      <c r="N29" s="240"/>
-      <c r="O29" s="240"/>
-      <c r="P29" s="240"/>
-      <c r="Q29" s="240"/>
-      <c r="R29" s="240"/>
-      <c r="S29" s="240"/>
-      <c r="T29" s="240"/>
-      <c r="U29" s="240"/>
-      <c r="V29" s="240"/>
-      <c r="W29" s="240"/>
-      <c r="X29" s="240"/>
-      <c r="Y29" s="240"/>
-      <c r="Z29" s="240"/>
-      <c r="AA29" s="240"/>
-      <c r="AB29" s="240"/>
-      <c r="AC29" s="240"/>
-      <c r="AD29" s="240"/>
-      <c r="AE29" s="240"/>
-      <c r="AF29" s="240"/>
-      <c r="AG29" s="240"/>
-    </row>
-    <row r="30" spans="1:35" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="241" t="s">
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="233"/>
+      <c r="L29" s="233"/>
+      <c r="M29" s="233"/>
+      <c r="N29" s="233"/>
+      <c r="O29" s="233"/>
+      <c r="P29" s="233"/>
+      <c r="Q29" s="233"/>
+      <c r="R29" s="233"/>
+      <c r="S29" s="233"/>
+      <c r="T29" s="233"/>
+      <c r="U29" s="233"/>
+      <c r="V29" s="233"/>
+      <c r="W29" s="233"/>
+      <c r="X29" s="233"/>
+      <c r="Y29" s="233"/>
+      <c r="Z29" s="233"/>
+      <c r="AA29" s="233"/>
+      <c r="AB29" s="233"/>
+      <c r="AC29" s="233"/>
+      <c r="AD29" s="233"/>
+      <c r="AE29" s="233"/>
+      <c r="AF29" s="233"/>
+      <c r="AG29" s="233"/>
+    </row>
+    <row r="30" spans="1:35" s="24" customFormat="1" ht="12">
+      <c r="A30" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="241"/>
-      <c r="N30" s="241"/>
-      <c r="O30" s="241"/>
-      <c r="P30" s="241"/>
-      <c r="Q30" s="241"/>
-      <c r="R30" s="241"/>
-      <c r="S30" s="241"/>
-      <c r="T30" s="241"/>
-      <c r="U30" s="241"/>
-      <c r="V30" s="241"/>
-      <c r="W30" s="241"/>
-      <c r="X30" s="241"/>
-      <c r="Y30" s="241"/>
-      <c r="Z30" s="241"/>
-      <c r="AA30" s="241"/>
-      <c r="AB30" s="241"/>
-      <c r="AC30" s="241"/>
-      <c r="AD30" s="241"/>
-      <c r="AE30" s="241"/>
-      <c r="AF30" s="241"/>
-      <c r="AG30" s="241"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="232"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="232"/>
+      <c r="Q30" s="232"/>
+      <c r="R30" s="232"/>
+      <c r="S30" s="232"/>
+      <c r="T30" s="232"/>
+      <c r="U30" s="232"/>
+      <c r="V30" s="232"/>
+      <c r="W30" s="232"/>
+      <c r="X30" s="232"/>
+      <c r="Y30" s="232"/>
+      <c r="Z30" s="232"/>
+      <c r="AA30" s="232"/>
+      <c r="AB30" s="232"/>
+      <c r="AC30" s="232"/>
+      <c r="AD30" s="232"/>
+      <c r="AE30" s="232"/>
+      <c r="AF30" s="232"/>
+      <c r="AG30" s="232"/>
+    </row>
+    <row r="31" spans="1:35">
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35">
       <c r="S32" s="28"/>
       <c r="T32" s="28"/>
       <c r="U32" s="28"/>
@@ -11144,7 +11151,7 @@
       <c r="Z32" s="28"/>
       <c r="AA32" s="28"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27">
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -11166,7 +11173,7 @@
       <c r="Z33" s="30"/>
       <c r="AA33" s="29"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27">
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -11188,7 +11195,7 @@
       <c r="Z34" s="28"/>
       <c r="AA34" s="28"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -11218,16 +11225,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:AG27"/>
-    <mergeCell ref="A28:AG28"/>
-    <mergeCell ref="A29:AG29"/>
-    <mergeCell ref="A30:AG30"/>
-    <mergeCell ref="A21:AG21"/>
-    <mergeCell ref="A22:AG22"/>
-    <mergeCell ref="A23:AG23"/>
-    <mergeCell ref="A24:AG24"/>
-    <mergeCell ref="A25:AG25"/>
-    <mergeCell ref="A26:AG26"/>
     <mergeCell ref="A20:AG20"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A10:AG10"/>
@@ -11240,6 +11237,16 @@
     <mergeCell ref="A17:AG17"/>
     <mergeCell ref="A18:AG18"/>
     <mergeCell ref="A19:AG19"/>
+    <mergeCell ref="A27:AG27"/>
+    <mergeCell ref="A28:AG28"/>
+    <mergeCell ref="A29:AG29"/>
+    <mergeCell ref="A30:AG30"/>
+    <mergeCell ref="A21:AG21"/>
+    <mergeCell ref="A22:AG22"/>
+    <mergeCell ref="A23:AG23"/>
+    <mergeCell ref="A24:AG24"/>
+    <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="A26:AG26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11253,58 +11260,58 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="26" customWidth="1"/>
-    <col min="2" max="30" width="6.7109375" style="26" customWidth="1"/>
-    <col min="31" max="36" width="9.7109375" style="26" customWidth="1"/>
-    <col min="37" max="38" width="6.7109375" style="26" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="32.6640625" style="26" customWidth="1"/>
+    <col min="2" max="30" width="6.6640625" style="26" customWidth="1"/>
+    <col min="31" max="36" width="9.6640625" style="26" customWidth="1"/>
+    <col min="37" max="38" width="6.6640625" style="26" customWidth="1"/>
+    <col min="39" max="16384" width="9.1640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:38" ht="17" thickBot="1">
+      <c r="A1" s="245" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="243"/>
-      <c r="AL1" s="243"/>
-    </row>
-    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="245"/>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="245"/>
+      <c r="AD1" s="245"/>
+      <c r="AE1" s="245"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="245"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="245"/>
+      <c r="AJ1" s="245"/>
+      <c r="AK1" s="245"/>
+      <c r="AL1" s="245"/>
+    </row>
+    <row r="2" spans="1:38" ht="14">
       <c r="A2" s="189"/>
       <c r="B2" s="5">
         <v>1960</v>
@@ -11418,7 +11425,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="16">
       <c r="A3" s="190" t="s">
         <v>256</v>
       </c>
@@ -11534,7 +11541,7 @@
         <v>292.36611721851324</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16">
       <c r="A4" s="190" t="s">
         <v>257</v>
       </c>
@@ -11650,7 +11657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="16">
       <c r="A5" s="190" t="s">
         <v>258</v>
       </c>
@@ -11766,7 +11773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="14">
       <c r="A6" s="190" t="s">
         <v>13</v>
       </c>
@@ -11882,7 +11889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="17" thickBot="1">
       <c r="A7" s="194" t="s">
         <v>259</v>
       </c>
@@ -11998,1144 +12005,1144 @@
         <v>70.772026078592035</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="244" t="s">
+    <row r="8" spans="1:38">
+      <c r="A8" s="246" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="244"/>
-      <c r="M8" s="244"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="244"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="244"/>
-      <c r="V8" s="244"/>
-      <c r="W8" s="244"/>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
-      <c r="Z8" s="244"/>
-      <c r="AA8" s="244"/>
-      <c r="AB8" s="244"/>
-      <c r="AC8" s="244"/>
-      <c r="AD8" s="244"/>
-      <c r="AE8" s="244"/>
-      <c r="AF8" s="244"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
       <c r="AG8" s="24"/>
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="245"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="245"/>
-      <c r="O9" s="245"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-      <c r="U9" s="245"/>
-      <c r="V9" s="245"/>
-      <c r="W9" s="245"/>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="245"/>
-      <c r="AA9" s="245"/>
-      <c r="AB9" s="245"/>
-      <c r="AC9" s="245"/>
-      <c r="AD9" s="245"/>
-      <c r="AE9" s="245"/>
-      <c r="AF9" s="245"/>
+    <row r="9" spans="1:38">
+      <c r="A9" s="247"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="247"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="247"/>
+      <c r="N9" s="247"/>
+      <c r="O9" s="247"/>
+      <c r="P9" s="247"/>
+      <c r="Q9" s="247"/>
+      <c r="R9" s="247"/>
+      <c r="S9" s="247"/>
+      <c r="T9" s="247"/>
+      <c r="U9" s="247"/>
+      <c r="V9" s="247"/>
+      <c r="W9" s="247"/>
+      <c r="X9" s="247"/>
+      <c r="Y9" s="247"/>
+      <c r="Z9" s="247"/>
+      <c r="AA9" s="247"/>
+      <c r="AB9" s="247"/>
+      <c r="AC9" s="247"/>
+      <c r="AD9" s="247"/>
+      <c r="AE9" s="247"/>
+      <c r="AF9" s="247"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
       <c r="AJ9" s="24"/>
       <c r="AK9" s="24"/>
     </row>
-    <row r="10" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="246" t="s">
+    <row r="10" spans="1:38">
+      <c r="A10" s="248" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="246"/>
-      <c r="U10" s="246"/>
-      <c r="V10" s="246"/>
-      <c r="W10" s="246"/>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="246"/>
-      <c r="AE10" s="246"/>
-      <c r="AF10" s="246"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="248"/>
+      <c r="M10" s="248"/>
+      <c r="N10" s="248"/>
+      <c r="O10" s="248"/>
+      <c r="P10" s="248"/>
+      <c r="Q10" s="248"/>
+      <c r="R10" s="248"/>
+      <c r="S10" s="248"/>
+      <c r="T10" s="248"/>
+      <c r="U10" s="248"/>
+      <c r="V10" s="248"/>
+      <c r="W10" s="248"/>
+      <c r="X10" s="248"/>
+      <c r="Y10" s="248"/>
+      <c r="Z10" s="248"/>
+      <c r="AA10" s="248"/>
+      <c r="AB10" s="248"/>
+      <c r="AC10" s="248"/>
+      <c r="AD10" s="248"/>
+      <c r="AE10" s="248"/>
+      <c r="AF10" s="248"/>
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
     </row>
-    <row r="11" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="246" t="s">
+    <row r="11" spans="1:38">
+      <c r="A11" s="248" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="246"/>
-      <c r="M11" s="246"/>
-      <c r="N11" s="246"/>
-      <c r="O11" s="246"/>
-      <c r="P11" s="246"/>
-      <c r="Q11" s="246"/>
-      <c r="R11" s="246"/>
-      <c r="S11" s="246"/>
-      <c r="T11" s="246"/>
-      <c r="U11" s="246"/>
-      <c r="V11" s="246"/>
-      <c r="W11" s="246"/>
-      <c r="X11" s="246"/>
-      <c r="Y11" s="246"/>
-      <c r="Z11" s="246"/>
-      <c r="AA11" s="246"/>
-      <c r="AB11" s="246"/>
-      <c r="AC11" s="246"/>
-      <c r="AD11" s="246"/>
-      <c r="AE11" s="246"/>
-      <c r="AF11" s="246"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="248"/>
+      <c r="H11" s="248"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="248"/>
+      <c r="L11" s="248"/>
+      <c r="M11" s="248"/>
+      <c r="N11" s="248"/>
+      <c r="O11" s="248"/>
+      <c r="P11" s="248"/>
+      <c r="Q11" s="248"/>
+      <c r="R11" s="248"/>
+      <c r="S11" s="248"/>
+      <c r="T11" s="248"/>
+      <c r="U11" s="248"/>
+      <c r="V11" s="248"/>
+      <c r="W11" s="248"/>
+      <c r="X11" s="248"/>
+      <c r="Y11" s="248"/>
+      <c r="Z11" s="248"/>
+      <c r="AA11" s="248"/>
+      <c r="AB11" s="248"/>
+      <c r="AC11" s="248"/>
+      <c r="AD11" s="248"/>
+      <c r="AE11" s="248"/>
+      <c r="AF11" s="248"/>
       <c r="AG11" s="24"/>
       <c r="AH11" s="24"/>
       <c r="AI11" s="24"/>
       <c r="AJ11" s="24"/>
       <c r="AK11" s="24"/>
     </row>
-    <row r="12" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="246" t="s">
+    <row r="12" spans="1:38">
+      <c r="A12" s="248" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="246"/>
-      <c r="W12" s="246"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="246"/>
-      <c r="AE12" s="246"/>
-      <c r="AF12" s="246"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="248"/>
+      <c r="P12" s="248"/>
+      <c r="Q12" s="248"/>
+      <c r="R12" s="248"/>
+      <c r="S12" s="248"/>
+      <c r="T12" s="248"/>
+      <c r="U12" s="248"/>
+      <c r="V12" s="248"/>
+      <c r="W12" s="248"/>
+      <c r="X12" s="248"/>
+      <c r="Y12" s="248"/>
+      <c r="Z12" s="248"/>
+      <c r="AA12" s="248"/>
+      <c r="AB12" s="248"/>
+      <c r="AC12" s="248"/>
+      <c r="AD12" s="248"/>
+      <c r="AE12" s="248"/>
+      <c r="AF12" s="248"/>
       <c r="AG12" s="24"/>
       <c r="AH12" s="24"/>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
       <c r="AK12" s="24"/>
     </row>
-    <row r="13" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="246" t="s">
+    <row r="13" spans="1:38">
+      <c r="A13" s="248" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="246"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="246"/>
-      <c r="AF13" s="246"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="248"/>
+      <c r="L13" s="248"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="248"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="248"/>
+      <c r="Q13" s="248"/>
+      <c r="R13" s="248"/>
+      <c r="S13" s="248"/>
+      <c r="T13" s="248"/>
+      <c r="U13" s="248"/>
+      <c r="V13" s="248"/>
+      <c r="W13" s="248"/>
+      <c r="X13" s="248"/>
+      <c r="Y13" s="248"/>
+      <c r="Z13" s="248"/>
+      <c r="AA13" s="248"/>
+      <c r="AB13" s="248"/>
+      <c r="AC13" s="248"/>
+      <c r="AD13" s="248"/>
+      <c r="AE13" s="248"/>
+      <c r="AF13" s="248"/>
       <c r="AG13" s="24"/>
       <c r="AH13" s="24"/>
       <c r="AI13" s="24"/>
       <c r="AJ13" s="24"/>
       <c r="AK13" s="24"/>
     </row>
-    <row r="14" spans="1:38" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="246"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="246"/>
-      <c r="O14" s="246"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="246"/>
-      <c r="T14" s="246"/>
-      <c r="U14" s="246"/>
-      <c r="V14" s="246"/>
-      <c r="W14" s="246"/>
-      <c r="X14" s="246"/>
-      <c r="Y14" s="246"/>
-      <c r="Z14" s="246"/>
-      <c r="AA14" s="246"/>
-      <c r="AB14" s="246"/>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="246"/>
-      <c r="AF14" s="246"/>
+    <row r="14" spans="1:38">
+      <c r="A14" s="248"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="248"/>
+      <c r="O14" s="248"/>
+      <c r="P14" s="248"/>
+      <c r="Q14" s="248"/>
+      <c r="R14" s="248"/>
+      <c r="S14" s="248"/>
+      <c r="T14" s="248"/>
+      <c r="U14" s="248"/>
+      <c r="V14" s="248"/>
+      <c r="W14" s="248"/>
+      <c r="X14" s="248"/>
+      <c r="Y14" s="248"/>
+      <c r="Z14" s="248"/>
+      <c r="AA14" s="248"/>
+      <c r="AB14" s="248"/>
+      <c r="AC14" s="248"/>
+      <c r="AD14" s="248"/>
+      <c r="AE14" s="248"/>
+      <c r="AF14" s="248"/>
       <c r="AG14" s="24"/>
       <c r="AH14" s="24"/>
       <c r="AI14" s="24"/>
       <c r="AJ14" s="24"/>
       <c r="AK14" s="24"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="245" t="s">
+    <row r="15" spans="1:38">
+      <c r="A15" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="245"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="245"/>
-      <c r="N15" s="245"/>
-      <c r="O15" s="245"/>
-      <c r="P15" s="245"/>
-      <c r="Q15" s="245"/>
-      <c r="R15" s="245"/>
-      <c r="S15" s="245"/>
-      <c r="T15" s="245"/>
-      <c r="U15" s="245"/>
-      <c r="V15" s="245"/>
-      <c r="W15" s="245"/>
-      <c r="X15" s="245"/>
-      <c r="Y15" s="245"/>
-      <c r="Z15" s="245"/>
-      <c r="AA15" s="245"/>
-      <c r="AB15" s="245"/>
-      <c r="AC15" s="245"/>
-      <c r="AD15" s="245"/>
-      <c r="AE15" s="245"/>
-      <c r="AF15" s="245"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="247"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="247"/>
+      <c r="N15" s="247"/>
+      <c r="O15" s="247"/>
+      <c r="P15" s="247"/>
+      <c r="Q15" s="247"/>
+      <c r="R15" s="247"/>
+      <c r="S15" s="247"/>
+      <c r="T15" s="247"/>
+      <c r="U15" s="247"/>
+      <c r="V15" s="247"/>
+      <c r="W15" s="247"/>
+      <c r="X15" s="247"/>
+      <c r="Y15" s="247"/>
+      <c r="Z15" s="247"/>
+      <c r="AA15" s="247"/>
+      <c r="AB15" s="247"/>
+      <c r="AC15" s="247"/>
+      <c r="AD15" s="247"/>
+      <c r="AE15" s="247"/>
+      <c r="AF15" s="247"/>
       <c r="AG15" s="24"/>
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="240" t="s">
+    <row r="16" spans="1:38">
+      <c r="A16" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="240"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="240"/>
-      <c r="M16" s="240"/>
-      <c r="N16" s="240"/>
-      <c r="O16" s="240"/>
-      <c r="P16" s="240"/>
-      <c r="Q16" s="240"/>
-      <c r="R16" s="240"/>
-      <c r="S16" s="240"/>
-      <c r="T16" s="240"/>
-      <c r="U16" s="240"/>
-      <c r="V16" s="240"/>
-      <c r="W16" s="240"/>
-      <c r="X16" s="240"/>
-      <c r="Y16" s="240"/>
-      <c r="Z16" s="240"/>
-      <c r="AA16" s="240"/>
-      <c r="AB16" s="240"/>
-      <c r="AC16" s="240"/>
-      <c r="AD16" s="240"/>
-      <c r="AE16" s="240"/>
-      <c r="AF16" s="240"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="233"/>
+      <c r="L16" s="233"/>
+      <c r="M16" s="233"/>
+      <c r="N16" s="233"/>
+      <c r="O16" s="233"/>
+      <c r="P16" s="233"/>
+      <c r="Q16" s="233"/>
+      <c r="R16" s="233"/>
+      <c r="S16" s="233"/>
+      <c r="T16" s="233"/>
+      <c r="U16" s="233"/>
+      <c r="V16" s="233"/>
+      <c r="W16" s="233"/>
+      <c r="X16" s="233"/>
+      <c r="Y16" s="233"/>
+      <c r="Z16" s="233"/>
+      <c r="AA16" s="233"/>
+      <c r="AB16" s="233"/>
+      <c r="AC16" s="233"/>
+      <c r="AD16" s="233"/>
+      <c r="AE16" s="233"/>
+      <c r="AF16" s="233"/>
       <c r="AG16" s="24"/>
       <c r="AH16" s="24"/>
       <c r="AI16" s="24"/>
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" s="241" t="s">
+    <row r="17" spans="1:37">
+      <c r="A17" s="232" t="s">
         <v>265</v>
       </c>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="241"/>
-      <c r="M17" s="241"/>
-      <c r="N17" s="241"/>
-      <c r="O17" s="241"/>
-      <c r="P17" s="241"/>
-      <c r="Q17" s="241"/>
-      <c r="R17" s="241"/>
-      <c r="S17" s="241"/>
-      <c r="T17" s="241"/>
-      <c r="U17" s="241"/>
-      <c r="V17" s="241"/>
-      <c r="W17" s="241"/>
-      <c r="X17" s="241"/>
-      <c r="Y17" s="241"/>
-      <c r="Z17" s="241"/>
-      <c r="AA17" s="241"/>
-      <c r="AB17" s="241"/>
-      <c r="AC17" s="241"/>
-      <c r="AD17" s="241"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="241"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="232"/>
+      <c r="R17" s="232"/>
+      <c r="S17" s="232"/>
+      <c r="T17" s="232"/>
+      <c r="U17" s="232"/>
+      <c r="V17" s="232"/>
+      <c r="W17" s="232"/>
+      <c r="X17" s="232"/>
+      <c r="Y17" s="232"/>
+      <c r="Z17" s="232"/>
+      <c r="AA17" s="232"/>
+      <c r="AB17" s="232"/>
+      <c r="AC17" s="232"/>
+      <c r="AD17" s="232"/>
+      <c r="AE17" s="232"/>
+      <c r="AF17" s="232"/>
       <c r="AG17" s="24"/>
       <c r="AH17" s="24"/>
       <c r="AI17" s="24"/>
       <c r="AJ17" s="24"/>
       <c r="AK17" s="24"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18" s="241" t="s">
+    <row r="18" spans="1:37">
+      <c r="A18" s="232" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="241"/>
-      <c r="N18" s="241"/>
-      <c r="O18" s="241"/>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="241"/>
-      <c r="R18" s="241"/>
-      <c r="S18" s="241"/>
-      <c r="T18" s="241"/>
-      <c r="U18" s="241"/>
-      <c r="V18" s="241"/>
-      <c r="W18" s="241"/>
-      <c r="X18" s="241"/>
-      <c r="Y18" s="241"/>
-      <c r="Z18" s="241"/>
-      <c r="AA18" s="241"/>
-      <c r="AB18" s="241"/>
-      <c r="AC18" s="241"/>
-      <c r="AD18" s="241"/>
-      <c r="AE18" s="241"/>
-      <c r="AF18" s="241"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="232"/>
+      <c r="H18" s="232"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="232"/>
+      <c r="O18" s="232"/>
+      <c r="P18" s="232"/>
+      <c r="Q18" s="232"/>
+      <c r="R18" s="232"/>
+      <c r="S18" s="232"/>
+      <c r="T18" s="232"/>
+      <c r="U18" s="232"/>
+      <c r="V18" s="232"/>
+      <c r="W18" s="232"/>
+      <c r="X18" s="232"/>
+      <c r="Y18" s="232"/>
+      <c r="Z18" s="232"/>
+      <c r="AA18" s="232"/>
+      <c r="AB18" s="232"/>
+      <c r="AC18" s="232"/>
+      <c r="AD18" s="232"/>
+      <c r="AE18" s="232"/>
+      <c r="AF18" s="232"/>
       <c r="AG18" s="24"/>
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" s="231" t="s">
+    <row r="19" spans="1:37">
+      <c r="A19" s="235" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="231"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
-      <c r="O19" s="231"/>
-      <c r="P19" s="231"/>
-      <c r="Q19" s="231"/>
-      <c r="R19" s="231"/>
-      <c r="S19" s="231"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="231"/>
-      <c r="W19" s="231"/>
-      <c r="X19" s="231"/>
-      <c r="Y19" s="231"/>
-      <c r="Z19" s="231"/>
-      <c r="AA19" s="231"/>
-      <c r="AB19" s="231"/>
-      <c r="AC19" s="231"/>
-      <c r="AD19" s="231"/>
-      <c r="AE19" s="231"/>
-      <c r="AF19" s="231"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="235"/>
+      <c r="M19" s="235"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="235"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="235"/>
+      <c r="U19" s="235"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="235"/>
+      <c r="X19" s="235"/>
+      <c r="Y19" s="235"/>
+      <c r="Z19" s="235"/>
+      <c r="AA19" s="235"/>
+      <c r="AB19" s="235"/>
+      <c r="AC19" s="235"/>
+      <c r="AD19" s="235"/>
+      <c r="AE19" s="235"/>
+      <c r="AF19" s="235"/>
       <c r="AG19" s="24"/>
       <c r="AH19" s="24"/>
       <c r="AI19" s="24"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20" s="231" t="s">
+    <row r="20" spans="1:37">
+      <c r="A20" s="235" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="231"/>
-      <c r="R20" s="231"/>
-      <c r="S20" s="231"/>
-      <c r="T20" s="231"/>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="231"/>
-      <c r="AA20" s="231"/>
-      <c r="AB20" s="231"/>
-      <c r="AC20" s="231"/>
-      <c r="AD20" s="231"/>
-      <c r="AE20" s="231"/>
-      <c r="AF20" s="231"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="235"/>
+      <c r="O20" s="235"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="235"/>
+      <c r="U20" s="235"/>
+      <c r="V20" s="235"/>
+      <c r="W20" s="235"/>
+      <c r="X20" s="235"/>
+      <c r="Y20" s="235"/>
+      <c r="Z20" s="235"/>
+      <c r="AA20" s="235"/>
+      <c r="AB20" s="235"/>
+      <c r="AC20" s="235"/>
+      <c r="AD20" s="235"/>
+      <c r="AE20" s="235"/>
+      <c r="AF20" s="235"/>
       <c r="AG20" s="24"/>
       <c r="AH20" s="24"/>
       <c r="AI20" s="24"/>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" s="231" t="s">
+    <row r="21" spans="1:37">
+      <c r="A21" s="235" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="231"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="231"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="231"/>
-      <c r="N21" s="231"/>
-      <c r="O21" s="231"/>
-      <c r="P21" s="231"/>
-      <c r="Q21" s="231"/>
-      <c r="R21" s="231"/>
-      <c r="S21" s="231"/>
-      <c r="T21" s="231"/>
-      <c r="U21" s="231"/>
-      <c r="V21" s="231"/>
-      <c r="W21" s="231"/>
-      <c r="X21" s="231"/>
-      <c r="Y21" s="231"/>
-      <c r="Z21" s="231"/>
-      <c r="AA21" s="231"/>
-      <c r="AB21" s="231"/>
-      <c r="AC21" s="231"/>
-      <c r="AD21" s="231"/>
-      <c r="AE21" s="231"/>
-      <c r="AF21" s="231"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="235"/>
+      <c r="L21" s="235"/>
+      <c r="M21" s="235"/>
+      <c r="N21" s="235"/>
+      <c r="O21" s="235"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="235"/>
+      <c r="U21" s="235"/>
+      <c r="V21" s="235"/>
+      <c r="W21" s="235"/>
+      <c r="X21" s="235"/>
+      <c r="Y21" s="235"/>
+      <c r="Z21" s="235"/>
+      <c r="AA21" s="235"/>
+      <c r="AB21" s="235"/>
+      <c r="AC21" s="235"/>
+      <c r="AD21" s="235"/>
+      <c r="AE21" s="235"/>
+      <c r="AF21" s="235"/>
       <c r="AG21" s="24"/>
       <c r="AH21" s="24"/>
       <c r="AI21" s="24"/>
       <c r="AJ21" s="24"/>
       <c r="AK21" s="24"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A22" s="231" t="s">
+    <row r="22" spans="1:37">
+      <c r="A22" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="231"/>
-      <c r="H22" s="231"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="231"/>
-      <c r="L22" s="231"/>
-      <c r="M22" s="231"/>
-      <c r="N22" s="231"/>
-      <c r="O22" s="231"/>
-      <c r="P22" s="231"/>
-      <c r="Q22" s="231"/>
-      <c r="R22" s="231"/>
-      <c r="S22" s="231"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="231"/>
-      <c r="W22" s="231"/>
-      <c r="X22" s="231"/>
-      <c r="Y22" s="231"/>
-      <c r="Z22" s="231"/>
-      <c r="AA22" s="231"/>
-      <c r="AB22" s="231"/>
-      <c r="AC22" s="231"/>
-      <c r="AD22" s="231"/>
-      <c r="AE22" s="231"/>
-      <c r="AF22" s="231"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="235"/>
+      <c r="M22" s="235"/>
+      <c r="N22" s="235"/>
+      <c r="O22" s="235"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="235"/>
+      <c r="U22" s="235"/>
+      <c r="V22" s="235"/>
+      <c r="W22" s="235"/>
+      <c r="X22" s="235"/>
+      <c r="Y22" s="235"/>
+      <c r="Z22" s="235"/>
+      <c r="AA22" s="235"/>
+      <c r="AB22" s="235"/>
+      <c r="AC22" s="235"/>
+      <c r="AD22" s="235"/>
+      <c r="AE22" s="235"/>
+      <c r="AF22" s="235"/>
       <c r="AG22" s="24"/>
       <c r="AH22" s="24"/>
       <c r="AI22" s="24"/>
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" s="242" t="s">
+    <row r="23" spans="1:37">
+      <c r="A23" s="234" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="242"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
-      <c r="P23" s="242"/>
-      <c r="Q23" s="242"/>
-      <c r="R23" s="242"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="242"/>
-      <c r="U23" s="242"/>
-      <c r="V23" s="242"/>
-      <c r="W23" s="242"/>
-      <c r="X23" s="242"/>
-      <c r="Y23" s="242"/>
-      <c r="Z23" s="242"/>
-      <c r="AA23" s="242"/>
-      <c r="AB23" s="242"/>
-      <c r="AC23" s="242"/>
-      <c r="AD23" s="242"/>
-      <c r="AE23" s="242"/>
-      <c r="AF23" s="242"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="234"/>
+      <c r="I23" s="234"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="234"/>
+      <c r="R23" s="234"/>
+      <c r="S23" s="234"/>
+      <c r="T23" s="234"/>
+      <c r="U23" s="234"/>
+      <c r="V23" s="234"/>
+      <c r="W23" s="234"/>
+      <c r="X23" s="234"/>
+      <c r="Y23" s="234"/>
+      <c r="Z23" s="234"/>
+      <c r="AA23" s="234"/>
+      <c r="AB23" s="234"/>
+      <c r="AC23" s="234"/>
+      <c r="AD23" s="234"/>
+      <c r="AE23" s="234"/>
+      <c r="AF23" s="234"/>
       <c r="AG23" s="24"/>
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="24"/>
       <c r="AK23" s="24"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" s="241" t="s">
+    <row r="24" spans="1:37">
+      <c r="A24" s="232" t="s">
         <v>272</v>
       </c>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="241"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="241"/>
-      <c r="V24" s="241"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="241"/>
-      <c r="AA24" s="241"/>
-      <c r="AB24" s="241"/>
-      <c r="AC24" s="241"/>
-      <c r="AD24" s="241"/>
-      <c r="AE24" s="241"/>
-      <c r="AF24" s="241"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="232"/>
+      <c r="N24" s="232"/>
+      <c r="O24" s="232"/>
+      <c r="P24" s="232"/>
+      <c r="Q24" s="232"/>
+      <c r="R24" s="232"/>
+      <c r="S24" s="232"/>
+      <c r="T24" s="232"/>
+      <c r="U24" s="232"/>
+      <c r="V24" s="232"/>
+      <c r="W24" s="232"/>
+      <c r="X24" s="232"/>
+      <c r="Y24" s="232"/>
+      <c r="Z24" s="232"/>
+      <c r="AA24" s="232"/>
+      <c r="AB24" s="232"/>
+      <c r="AC24" s="232"/>
+      <c r="AD24" s="232"/>
+      <c r="AE24" s="232"/>
+      <c r="AF24" s="232"/>
       <c r="AG24" s="24"/>
       <c r="AH24" s="24"/>
       <c r="AI24" s="24"/>
       <c r="AJ24" s="24"/>
       <c r="AK24" s="24"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="241" t="s">
+    <row r="25" spans="1:37">
+      <c r="A25" s="232" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="241"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="241"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="241"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="241"/>
-      <c r="AF25" s="241"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="232"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="232"/>
+      <c r="O25" s="232"/>
+      <c r="P25" s="232"/>
+      <c r="Q25" s="232"/>
+      <c r="R25" s="232"/>
+      <c r="S25" s="232"/>
+      <c r="T25" s="232"/>
+      <c r="U25" s="232"/>
+      <c r="V25" s="232"/>
+      <c r="W25" s="232"/>
+      <c r="X25" s="232"/>
+      <c r="Y25" s="232"/>
+      <c r="Z25" s="232"/>
+      <c r="AA25" s="232"/>
+      <c r="AB25" s="232"/>
+      <c r="AC25" s="232"/>
+      <c r="AD25" s="232"/>
+      <c r="AE25" s="232"/>
+      <c r="AF25" s="232"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="24"/>
       <c r="AK25" s="24"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" s="242" t="s">
+    <row r="26" spans="1:37">
+      <c r="A26" s="234" t="s">
         <v>274</v>
       </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="242"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="242"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="242"/>
-      <c r="U26" s="242"/>
-      <c r="V26" s="242"/>
-      <c r="W26" s="242"/>
-      <c r="X26" s="242"/>
-      <c r="Y26" s="242"/>
-      <c r="Z26" s="242"/>
-      <c r="AA26" s="242"/>
-      <c r="AB26" s="242"/>
-      <c r="AC26" s="242"/>
-      <c r="AD26" s="242"/>
-      <c r="AE26" s="242"/>
-      <c r="AF26" s="242"/>
+      <c r="B26" s="234"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="234"/>
+      <c r="R26" s="234"/>
+      <c r="S26" s="234"/>
+      <c r="T26" s="234"/>
+      <c r="U26" s="234"/>
+      <c r="V26" s="234"/>
+      <c r="W26" s="234"/>
+      <c r="X26" s="234"/>
+      <c r="Y26" s="234"/>
+      <c r="Z26" s="234"/>
+      <c r="AA26" s="234"/>
+      <c r="AB26" s="234"/>
+      <c r="AC26" s="234"/>
+      <c r="AD26" s="234"/>
+      <c r="AE26" s="234"/>
+      <c r="AF26" s="234"/>
       <c r="AG26" s="24"/>
       <c r="AH26" s="24"/>
       <c r="AI26" s="24"/>
       <c r="AJ26" s="24"/>
       <c r="AK26" s="24"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A27" s="241" t="s">
+    <row r="27" spans="1:37">
+      <c r="A27" s="232" t="s">
         <v>275</v>
       </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="241"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="241"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="241"/>
-      <c r="V27" s="241"/>
-      <c r="W27" s="241"/>
-      <c r="X27" s="241"/>
-      <c r="Y27" s="241"/>
-      <c r="Z27" s="241"/>
-      <c r="AA27" s="241"/>
-      <c r="AB27" s="241"/>
-      <c r="AC27" s="241"/>
-      <c r="AD27" s="241"/>
-      <c r="AE27" s="241"/>
-      <c r="AF27" s="241"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="232"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="232"/>
+      <c r="U27" s="232"/>
+      <c r="V27" s="232"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="232"/>
+      <c r="Y27" s="232"/>
+      <c r="Z27" s="232"/>
+      <c r="AA27" s="232"/>
+      <c r="AB27" s="232"/>
+      <c r="AC27" s="232"/>
+      <c r="AD27" s="232"/>
+      <c r="AE27" s="232"/>
+      <c r="AF27" s="232"/>
       <c r="AG27" s="24"/>
       <c r="AH27" s="24"/>
       <c r="AI27" s="24"/>
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" s="241" t="s">
+    <row r="28" spans="1:37">
+      <c r="A28" s="232" t="s">
         <v>276</v>
       </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="241"/>
-      <c r="O28" s="241"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="241"/>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="241"/>
-      <c r="Z28" s="241"/>
-      <c r="AA28" s="241"/>
-      <c r="AB28" s="241"/>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="241"/>
-      <c r="AE28" s="241"/>
-      <c r="AF28" s="241"/>
+      <c r="B28" s="232"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="232"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="232"/>
+      <c r="N28" s="232"/>
+      <c r="O28" s="232"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="232"/>
+      <c r="U28" s="232"/>
+      <c r="V28" s="232"/>
+      <c r="W28" s="232"/>
+      <c r="X28" s="232"/>
+      <c r="Y28" s="232"/>
+      <c r="Z28" s="232"/>
+      <c r="AA28" s="232"/>
+      <c r="AB28" s="232"/>
+      <c r="AC28" s="232"/>
+      <c r="AD28" s="232"/>
+      <c r="AE28" s="232"/>
+      <c r="AF28" s="232"/>
       <c r="AG28" s="24"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="24"/>
       <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A29" s="242" t="s">
+    <row r="29" spans="1:37">
+      <c r="A29" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="242"/>
-      <c r="K29" s="242"/>
-      <c r="L29" s="242"/>
-      <c r="M29" s="242"/>
-      <c r="N29" s="242"/>
-      <c r="O29" s="242"/>
-      <c r="P29" s="242"/>
-      <c r="Q29" s="242"/>
-      <c r="R29" s="242"/>
-      <c r="S29" s="242"/>
-      <c r="T29" s="242"/>
-      <c r="U29" s="242"/>
-      <c r="V29" s="242"/>
-      <c r="W29" s="242"/>
-      <c r="X29" s="242"/>
-      <c r="Y29" s="242"/>
-      <c r="Z29" s="242"/>
-      <c r="AA29" s="242"/>
-      <c r="AB29" s="242"/>
-      <c r="AC29" s="242"/>
-      <c r="AD29" s="242"/>
-      <c r="AE29" s="242"/>
-      <c r="AF29" s="242"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="234"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="234"/>
+      <c r="P29" s="234"/>
+      <c r="Q29" s="234"/>
+      <c r="R29" s="234"/>
+      <c r="S29" s="234"/>
+      <c r="T29" s="234"/>
+      <c r="U29" s="234"/>
+      <c r="V29" s="234"/>
+      <c r="W29" s="234"/>
+      <c r="X29" s="234"/>
+      <c r="Y29" s="234"/>
+      <c r="Z29" s="234"/>
+      <c r="AA29" s="234"/>
+      <c r="AB29" s="234"/>
+      <c r="AC29" s="234"/>
+      <c r="AD29" s="234"/>
+      <c r="AE29" s="234"/>
+      <c r="AF29" s="234"/>
       <c r="AG29" s="24"/>
       <c r="AH29" s="24"/>
       <c r="AI29" s="24"/>
       <c r="AJ29" s="24"/>
       <c r="AK29" s="24"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A30" s="241" t="s">
+    <row r="30" spans="1:37">
+      <c r="A30" s="232" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="241"/>
-      <c r="N30" s="241"/>
-      <c r="O30" s="241"/>
-      <c r="P30" s="241"/>
-      <c r="Q30" s="241"/>
-      <c r="R30" s="241"/>
-      <c r="S30" s="241"/>
-      <c r="T30" s="241"/>
-      <c r="U30" s="241"/>
-      <c r="V30" s="241"/>
-      <c r="W30" s="241"/>
-      <c r="X30" s="241"/>
-      <c r="Y30" s="241"/>
-      <c r="Z30" s="241"/>
-      <c r="AA30" s="241"/>
-      <c r="AB30" s="241"/>
-      <c r="AC30" s="241"/>
-      <c r="AD30" s="241"/>
-      <c r="AE30" s="241"/>
-      <c r="AF30" s="241"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="232"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="232"/>
+      <c r="Q30" s="232"/>
+      <c r="R30" s="232"/>
+      <c r="S30" s="232"/>
+      <c r="T30" s="232"/>
+      <c r="U30" s="232"/>
+      <c r="V30" s="232"/>
+      <c r="W30" s="232"/>
+      <c r="X30" s="232"/>
+      <c r="Y30" s="232"/>
+      <c r="Z30" s="232"/>
+      <c r="AA30" s="232"/>
+      <c r="AB30" s="232"/>
+      <c r="AC30" s="232"/>
+      <c r="AD30" s="232"/>
+      <c r="AE30" s="232"/>
+      <c r="AF30" s="232"/>
       <c r="AG30" s="24"/>
       <c r="AH30" s="24"/>
       <c r="AI30" s="24"/>
       <c r="AJ30" s="24"/>
       <c r="AK30" s="24"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A31" s="241" t="s">
+    <row r="31" spans="1:37">
+      <c r="A31" s="232" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="241"/>
-      <c r="P31" s="241"/>
-      <c r="Q31" s="241"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="241"/>
-      <c r="AC31" s="241"/>
-      <c r="AD31" s="241"/>
-      <c r="AE31" s="241"/>
-      <c r="AF31" s="241"/>
+      <c r="B31" s="232"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="232"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="232"/>
+      <c r="R31" s="232"/>
+      <c r="S31" s="232"/>
+      <c r="T31" s="232"/>
+      <c r="U31" s="232"/>
+      <c r="V31" s="232"/>
+      <c r="W31" s="232"/>
+      <c r="X31" s="232"/>
+      <c r="Y31" s="232"/>
+      <c r="Z31" s="232"/>
+      <c r="AA31" s="232"/>
+      <c r="AB31" s="232"/>
+      <c r="AC31" s="232"/>
+      <c r="AD31" s="232"/>
+      <c r="AE31" s="232"/>
+      <c r="AF31" s="232"/>
       <c r="AG31" s="24"/>
       <c r="AH31" s="24"/>
       <c r="AI31" s="24"/>
       <c r="AJ31" s="24"/>
       <c r="AK31" s="24"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A32" s="241" t="s">
+    <row r="32" spans="1:37">
+      <c r="A32" s="232" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="241"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="241"/>
-      <c r="M32" s="241"/>
-      <c r="N32" s="241"/>
-      <c r="O32" s="241"/>
-      <c r="P32" s="241"/>
-      <c r="Q32" s="241"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="241"/>
-      <c r="W32" s="241"/>
-      <c r="X32" s="241"/>
-      <c r="Y32" s="241"/>
-      <c r="Z32" s="241"/>
-      <c r="AA32" s="241"/>
-      <c r="AB32" s="241"/>
-      <c r="AC32" s="241"/>
-      <c r="AD32" s="241"/>
-      <c r="AE32" s="241"/>
-      <c r="AF32" s="241"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="232"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="232"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="232"/>
       <c r="AG32" s="24"/>
       <c r="AH32" s="24"/>
       <c r="AI32" s="24"/>
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A33" s="247" t="s">
+    <row r="33" spans="1:37">
+      <c r="A33" s="244" t="s">
         <v>281</v>
       </c>
-      <c r="B33" s="247"/>
-      <c r="C33" s="247"/>
-      <c r="D33" s="247"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="247"/>
-      <c r="K33" s="247"/>
-      <c r="L33" s="247"/>
-      <c r="M33" s="247"/>
-      <c r="N33" s="247"/>
-      <c r="O33" s="247"/>
-      <c r="P33" s="247"/>
-      <c r="Q33" s="247"/>
-      <c r="R33" s="247"/>
-      <c r="S33" s="247"/>
-      <c r="T33" s="247"/>
-      <c r="U33" s="247"/>
-      <c r="V33" s="247"/>
-      <c r="W33" s="247"/>
-      <c r="X33" s="247"/>
-      <c r="Y33" s="247"/>
-      <c r="Z33" s="247"/>
-      <c r="AA33" s="247"/>
-      <c r="AB33" s="247"/>
-      <c r="AC33" s="247"/>
-      <c r="AD33" s="247"/>
-      <c r="AE33" s="247"/>
-      <c r="AF33" s="247"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="244"/>
+      <c r="K33" s="244"/>
+      <c r="L33" s="244"/>
+      <c r="M33" s="244"/>
+      <c r="N33" s="244"/>
+      <c r="O33" s="244"/>
+      <c r="P33" s="244"/>
+      <c r="Q33" s="244"/>
+      <c r="R33" s="244"/>
+      <c r="S33" s="244"/>
+      <c r="T33" s="244"/>
+      <c r="U33" s="244"/>
+      <c r="V33" s="244"/>
+      <c r="W33" s="244"/>
+      <c r="X33" s="244"/>
+      <c r="Y33" s="244"/>
+      <c r="Z33" s="244"/>
+      <c r="AA33" s="244"/>
+      <c r="AB33" s="244"/>
+      <c r="AC33" s="244"/>
+      <c r="AD33" s="244"/>
+      <c r="AE33" s="244"/>
+      <c r="AF33" s="244"/>
       <c r="AG33" s="196"/>
       <c r="AH33" s="196"/>
       <c r="AI33" s="196"/>
       <c r="AJ33" s="196"/>
       <c r="AK33" s="196"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A34" s="231" t="s">
+    <row r="34" spans="1:37">
+      <c r="A34" s="235" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="231"/>
-      <c r="C34" s="231"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="231"/>
-      <c r="G34" s="231"/>
-      <c r="H34" s="231"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="231"/>
-      <c r="K34" s="231"/>
-      <c r="L34" s="231"/>
-      <c r="M34" s="231"/>
-      <c r="N34" s="231"/>
-      <c r="O34" s="231"/>
-      <c r="P34" s="231"/>
-      <c r="Q34" s="231"/>
-      <c r="R34" s="231"/>
-      <c r="S34" s="231"/>
-      <c r="T34" s="231"/>
-      <c r="U34" s="231"/>
-      <c r="V34" s="231"/>
-      <c r="W34" s="231"/>
-      <c r="X34" s="231"/>
-      <c r="Y34" s="231"/>
-      <c r="Z34" s="231"/>
-      <c r="AA34" s="231"/>
-      <c r="AB34" s="231"/>
-      <c r="AC34" s="231"/>
-      <c r="AD34" s="231"/>
-      <c r="AE34" s="231"/>
-      <c r="AF34" s="231"/>
+      <c r="B34" s="235"/>
+      <c r="C34" s="235"/>
+      <c r="D34" s="235"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="235"/>
+      <c r="M34" s="235"/>
+      <c r="N34" s="235"/>
+      <c r="O34" s="235"/>
+      <c r="P34" s="235"/>
+      <c r="Q34" s="235"/>
+      <c r="R34" s="235"/>
+      <c r="S34" s="235"/>
+      <c r="T34" s="235"/>
+      <c r="U34" s="235"/>
+      <c r="V34" s="235"/>
+      <c r="W34" s="235"/>
+      <c r="X34" s="235"/>
+      <c r="Y34" s="235"/>
+      <c r="Z34" s="235"/>
+      <c r="AA34" s="235"/>
+      <c r="AB34" s="235"/>
+      <c r="AC34" s="235"/>
+      <c r="AD34" s="235"/>
+      <c r="AE34" s="235"/>
+      <c r="AF34" s="235"/>
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
       <c r="AI34" s="24"/>
       <c r="AJ34" s="24"/>
       <c r="AK34" s="24"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A35" s="231" t="s">
+    <row r="35" spans="1:37">
+      <c r="A35" s="235" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="231"/>
-      <c r="C35" s="231"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="231"/>
-      <c r="F35" s="231"/>
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="231"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
-      <c r="U35" s="231"/>
-      <c r="V35" s="231"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="231"/>
-      <c r="Y35" s="231"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="231"/>
-      <c r="AB35" s="231"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
+      <c r="B35" s="235"/>
+      <c r="C35" s="235"/>
+      <c r="D35" s="235"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="235"/>
+      <c r="L35" s="235"/>
+      <c r="M35" s="235"/>
+      <c r="N35" s="235"/>
+      <c r="O35" s="235"/>
+      <c r="P35" s="235"/>
+      <c r="Q35" s="235"/>
+      <c r="R35" s="235"/>
+      <c r="S35" s="235"/>
+      <c r="T35" s="235"/>
+      <c r="U35" s="235"/>
+      <c r="V35" s="235"/>
+      <c r="W35" s="235"/>
+      <c r="X35" s="235"/>
+      <c r="Y35" s="235"/>
+      <c r="Z35" s="235"/>
+      <c r="AA35" s="235"/>
+      <c r="AB35" s="235"/>
+      <c r="AC35" s="235"/>
+      <c r="AD35" s="235"/>
+      <c r="AE35" s="235"/>
+      <c r="AF35" s="235"/>
       <c r="AG35" s="24"/>
       <c r="AH35" s="24"/>
       <c r="AI35" s="24"/>
@@ -13144,11 +13151,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A31:AF31"/>
-    <mergeCell ref="A32:AF32"/>
-    <mergeCell ref="A33:AF33"/>
-    <mergeCell ref="A34:AF34"/>
-    <mergeCell ref="A35:AF35"/>
+    <mergeCell ref="A18:AF18"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A8:AF8"/>
+    <mergeCell ref="A9:AF9"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="A11:AF11"/>
+    <mergeCell ref="A12:AF12"/>
+    <mergeCell ref="A13:AF13"/>
+    <mergeCell ref="A14:AF14"/>
+    <mergeCell ref="A15:AF15"/>
+    <mergeCell ref="A16:AF16"/>
+    <mergeCell ref="A17:AF17"/>
     <mergeCell ref="A30:AF30"/>
     <mergeCell ref="A19:AF19"/>
     <mergeCell ref="A20:AF20"/>
@@ -13161,18 +13175,11 @@
     <mergeCell ref="A27:AF27"/>
     <mergeCell ref="A28:AF28"/>
     <mergeCell ref="A29:AF29"/>
-    <mergeCell ref="A18:AF18"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A8:AF8"/>
-    <mergeCell ref="A9:AF9"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="A11:AF11"/>
-    <mergeCell ref="A12:AF12"/>
-    <mergeCell ref="A13:AF13"/>
-    <mergeCell ref="A14:AF14"/>
-    <mergeCell ref="A15:AF15"/>
-    <mergeCell ref="A16:AF16"/>
-    <mergeCell ref="A17:AF17"/>
+    <mergeCell ref="A31:AF31"/>
+    <mergeCell ref="A32:AF32"/>
+    <mergeCell ref="A33:AF33"/>
+    <mergeCell ref="A34:AF34"/>
+    <mergeCell ref="A35:AF35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13186,21 +13193,21 @@
       <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="38"/>
-    <col min="7" max="24" width="11.85546875" style="38" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" style="38" customWidth="1"/>
-    <col min="26" max="30" width="8.85546875" style="38"/>
-    <col min="31" max="31" width="8.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="2" width="9.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="38"/>
+    <col min="7" max="24" width="11.83203125" style="38" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="38" customWidth="1"/>
+    <col min="26" max="30" width="8.83203125" style="38"/>
+    <col min="31" max="31" width="8.83203125" style="38" hidden="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16" thickBot="1">
       <c r="A1" s="34"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -13242,7 +13249,7 @@
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
     </row>
-    <row r="2" spans="1:35" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="38" thickTop="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -13321,7 +13328,7 @@
       <c r="AH2" s="35"/>
       <c r="AI2" s="35"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="16" thickBot="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -13400,7 +13407,7 @@
       <c r="AH3" s="35"/>
       <c r="AI3" s="35"/>
     </row>
-    <row r="4" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="16" thickTop="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -13439,7 +13446,7 @@
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="16" thickBot="1">
       <c r="A5" s="58" t="s">
         <v>64</v>
       </c>
@@ -13478,7 +13485,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:35" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="38" thickTop="1">
       <c r="A6" s="61"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -13560,7 +13567,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A7" s="67" t="s">
         <v>66</v>
       </c>
@@ -13648,7 +13655,7 @@
       <c r="AH7" s="53"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A8" s="67" t="s">
         <v>68</v>
       </c>
@@ -13738,7 +13745,7 @@
       <c r="AH8" s="53"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A9" s="67" t="s">
         <v>71</v>
       </c>
@@ -13826,7 +13833,7 @@
       <c r="AH9" s="53"/>
       <c r="AI9" s="53"/>
     </row>
-    <row r="10" spans="1:35" s="77" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="77" customFormat="1" ht="11" hidden="1">
       <c r="A10" s="67" t="s">
         <v>72</v>
       </c>
@@ -13912,7 +13919,7 @@
       <c r="AH10" s="53"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:35" s="77" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="77" customFormat="1" ht="11" hidden="1">
       <c r="A11" s="67" t="s">
         <v>72</v>
       </c>
@@ -13998,7 +14005,7 @@
       <c r="AH11" s="53"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:35" s="77" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="77" customFormat="1" ht="11" hidden="1">
       <c r="A12" s="67" t="s">
         <v>72</v>
       </c>
@@ -14084,7 +14091,7 @@
       <c r="AH12" s="53"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:35" s="77" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="77" customFormat="1" ht="11" hidden="1">
       <c r="A13" s="67" t="s">
         <v>72</v>
       </c>
@@ -14170,7 +14177,7 @@
       <c r="AH13" s="53"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:35" s="77" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="77" customFormat="1" ht="11" hidden="1">
       <c r="A14" s="67" t="s">
         <v>72</v>
       </c>
@@ -14256,7 +14263,7 @@
       <c r="AH14" s="53"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:35" s="77" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="77" customFormat="1" ht="11" hidden="1">
       <c r="A15" s="84" t="s">
         <v>72</v>
       </c>
@@ -14342,7 +14349,7 @@
       <c r="AH15" s="53"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:35" s="77" customFormat="1" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="77" customFormat="1" ht="11" hidden="1" customHeight="1">
       <c r="A16" s="94"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
@@ -14379,7 +14386,7 @@
       <c r="AH16" s="53"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:38" s="77" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" s="77" customFormat="1" ht="11" customHeight="1" thickBot="1">
       <c r="A17" s="101"/>
       <c r="B17" s="101"/>
       <c r="C17" s="101"/>
@@ -14416,7 +14423,7 @@
       <c r="AH17" s="53"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:38" s="77" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" s="77" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="A18" s="104" t="s">
         <v>73</v>
       </c>
@@ -14455,7 +14462,7 @@
       <c r="AH18" s="53"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:38" s="77" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="77" customFormat="1" ht="38" thickTop="1">
       <c r="A19" s="108" t="s">
         <v>74</v>
       </c>
@@ -14542,7 +14549,7 @@
       <c r="AH19" s="53"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A20" s="117" t="s">
         <v>78</v>
       </c>
@@ -14625,7 +14632,7 @@
       <c r="AH20" s="53"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A21" s="124" t="s">
         <v>78</v>
       </c>
@@ -14708,7 +14715,7 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A22" s="124" t="s">
         <v>83</v>
       </c>
@@ -14791,7 +14798,7 @@
       <c r="AH22" s="53"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="13.5" customHeight="1">
       <c r="A23" s="124" t="s">
         <v>85</v>
       </c>
@@ -14877,7 +14884,7 @@
       <c r="AK23" s="77"/>
       <c r="AL23" s="77"/>
     </row>
-    <row r="24" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A24" s="124" t="s">
         <v>85</v>
       </c>
@@ -14960,7 +14967,7 @@
       <c r="AH24" s="53"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A25" s="124" t="s">
         <v>88</v>
       </c>
@@ -15043,7 +15050,7 @@
       <c r="AH25" s="53"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A26" s="124" t="s">
         <v>88</v>
       </c>
@@ -15126,7 +15133,7 @@
       <c r="AH26" s="53"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A27" s="124" t="s">
         <v>91</v>
       </c>
@@ -15209,7 +15216,7 @@
       <c r="AH27" s="53"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A28" s="124" t="s">
         <v>93</v>
       </c>
@@ -15292,7 +15299,7 @@
       <c r="AH28" s="53"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A29" s="124" t="s">
         <v>93</v>
       </c>
@@ -15375,7 +15382,7 @@
       <c r="AH29" s="53"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A30" s="124" t="s">
         <v>96</v>
       </c>
@@ -15458,7 +15465,7 @@
       <c r="AH30" s="53"/>
       <c r="AI30" s="53"/>
     </row>
-    <row r="31" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A31" s="124" t="s">
         <v>96</v>
       </c>
@@ -15541,7 +15548,7 @@
       <c r="AH31" s="53"/>
       <c r="AI31" s="53"/>
     </row>
-    <row r="32" spans="1:38" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" s="77" customFormat="1" ht="12">
       <c r="A32" s="124" t="s">
         <v>99</v>
       </c>
@@ -15624,7 +15631,7 @@
       <c r="AH32" s="53"/>
       <c r="AI32" s="53"/>
     </row>
-    <row r="33" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A33" s="124" t="s">
         <v>99</v>
       </c>
@@ -15707,7 +15714,7 @@
       <c r="AH33" s="53"/>
       <c r="AI33" s="53"/>
     </row>
-    <row r="34" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A34" s="124" t="s">
         <v>102</v>
       </c>
@@ -15790,7 +15797,7 @@
       <c r="AH34" s="53"/>
       <c r="AI34" s="53"/>
     </row>
-    <row r="35" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A35" s="124" t="s">
         <v>104</v>
       </c>
@@ -15873,7 +15880,7 @@
       <c r="AH35" s="53"/>
       <c r="AI35" s="53"/>
     </row>
-    <row r="36" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A36" s="124" t="s">
         <v>104</v>
       </c>
@@ -15956,7 +15963,7 @@
       <c r="AH36" s="53"/>
       <c r="AI36" s="53"/>
     </row>
-    <row r="37" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A37" s="124" t="s">
         <v>107</v>
       </c>
@@ -16039,7 +16046,7 @@
       <c r="AH37" s="53"/>
       <c r="AI37" s="53"/>
     </row>
-    <row r="38" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A38" s="124" t="s">
         <v>107</v>
       </c>
@@ -16122,7 +16129,7 @@
       <c r="AH38" s="53"/>
       <c r="AI38" s="53"/>
     </row>
-    <row r="39" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A39" s="124" t="s">
         <v>110</v>
       </c>
@@ -16205,7 +16212,7 @@
       <c r="AH39" s="53"/>
       <c r="AI39" s="53"/>
     </row>
-    <row r="40" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A40" s="124" t="s">
         <v>110</v>
       </c>
@@ -16288,7 +16295,7 @@
       <c r="AH40" s="53"/>
       <c r="AI40" s="53"/>
     </row>
-    <row r="41" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A41" s="124" t="s">
         <v>113</v>
       </c>
@@ -16371,7 +16378,7 @@
       <c r="AH41" s="53"/>
       <c r="AI41" s="53"/>
     </row>
-    <row r="42" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A42" s="124" t="s">
         <v>115</v>
       </c>
@@ -16454,7 +16461,7 @@
       <c r="AH42" s="53"/>
       <c r="AI42" s="53"/>
     </row>
-    <row r="43" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A43" s="124" t="s">
         <v>115</v>
       </c>
@@ -16537,7 +16544,7 @@
       <c r="AH43" s="53"/>
       <c r="AI43" s="53"/>
     </row>
-    <row r="44" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A44" s="124" t="s">
         <v>118</v>
       </c>
@@ -16620,7 +16627,7 @@
       <c r="AH44" s="53"/>
       <c r="AI44" s="53"/>
     </row>
-    <row r="45" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A45" s="124" t="s">
         <v>118</v>
       </c>
@@ -16703,7 +16710,7 @@
       <c r="AH45" s="53"/>
       <c r="AI45" s="53"/>
     </row>
-    <row r="46" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A46" s="124" t="s">
         <v>121</v>
       </c>
@@ -16786,7 +16793,7 @@
       <c r="AH46" s="53"/>
       <c r="AI46" s="53"/>
     </row>
-    <row r="47" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A47" s="124" t="s">
         <v>123</v>
       </c>
@@ -16869,7 +16876,7 @@
       <c r="AH47" s="53"/>
       <c r="AI47" s="53"/>
     </row>
-    <row r="48" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A48" s="124" t="s">
         <v>125</v>
       </c>
@@ -16952,7 +16959,7 @@
       <c r="AH48" s="53"/>
       <c r="AI48" s="53"/>
     </row>
-    <row r="49" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A49" s="124" t="s">
         <v>125</v>
       </c>
@@ -17035,7 +17042,7 @@
       <c r="AH49" s="53"/>
       <c r="AI49" s="53"/>
     </row>
-    <row r="50" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A50" s="124" t="s">
         <v>128</v>
       </c>
@@ -17118,7 +17125,7 @@
       <c r="AH50" s="53"/>
       <c r="AI50" s="53"/>
     </row>
-    <row r="51" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" s="77" customFormat="1" ht="12">
       <c r="A51" s="124" t="s">
         <v>130</v>
       </c>
@@ -17201,7 +17208,7 @@
       <c r="AH51" s="53"/>
       <c r="AI51" s="53"/>
     </row>
-    <row r="52" spans="1:35" s="77" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" s="77" customFormat="1" ht="13" thickBot="1">
       <c r="A52" s="137" t="s">
         <v>130</v>
       </c>
@@ -17284,7 +17291,7 @@
       <c r="AH52" s="53"/>
       <c r="AI52" s="53"/>
     </row>
-    <row r="53" spans="1:35" s="77" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" s="77" customFormat="1" ht="12" thickTop="1">
       <c r="A53" s="143"/>
       <c r="B53" s="144"/>
       <c r="C53" s="145"/>
@@ -17321,7 +17328,7 @@
       <c r="AH53" s="53"/>
       <c r="AI53" s="53"/>
     </row>
-    <row r="54" spans="1:35" s="77" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" s="77" customFormat="1" ht="12" thickBot="1">
       <c r="A54" s="148" t="s">
         <v>133</v>
       </c>
@@ -17360,7 +17367,7 @@
       <c r="AH54" s="53"/>
       <c r="AI54" s="53"/>
     </row>
-    <row r="55" spans="1:35" s="77" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" s="77" customFormat="1" ht="37" thickTop="1">
       <c r="A55" s="152"/>
       <c r="B55" s="153"/>
       <c r="C55" s="153"/>
@@ -17439,7 +17446,7 @@
       <c r="AH55" s="53"/>
       <c r="AI55" s="53"/>
     </row>
-    <row r="56" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A56" s="67" t="s">
         <v>66</v>
       </c>
@@ -17525,7 +17532,7 @@
       <c r="AH56" s="53"/>
       <c r="AI56" s="53"/>
     </row>
-    <row r="57" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A57" s="67" t="s">
         <v>68</v>
       </c>
@@ -17613,7 +17620,7 @@
       <c r="AH57" s="53"/>
       <c r="AI57" s="53"/>
     </row>
-    <row r="58" spans="1:35" s="77" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" s="77" customFormat="1" ht="11.25" customHeight="1">
       <c r="A58" s="67" t="s">
         <v>68</v>
       </c>
@@ -17701,7 +17708,7 @@
       <c r="AH58" s="53"/>
       <c r="AI58" s="53"/>
     </row>
-    <row r="59" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A59" s="67" t="s">
         <v>68</v>
       </c>
@@ -17789,7 +17796,7 @@
       <c r="AH59" s="53"/>
       <c r="AI59" s="53"/>
     </row>
-    <row r="60" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A60" s="67" t="s">
         <v>68</v>
       </c>
@@ -17877,7 +17884,7 @@
       <c r="AH60" s="53"/>
       <c r="AI60" s="53"/>
     </row>
-    <row r="61" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A61" s="67" t="s">
         <v>68</v>
       </c>
@@ -17965,7 +17972,7 @@
       <c r="AH61" s="53"/>
       <c r="AI61" s="53"/>
     </row>
-    <row r="62" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A62" s="67" t="s">
         <v>68</v>
       </c>
@@ -18053,7 +18060,7 @@
       <c r="AH62" s="53"/>
       <c r="AI62" s="53"/>
     </row>
-    <row r="63" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A63" s="67" t="s">
         <v>68</v>
       </c>
@@ -18141,7 +18148,7 @@
       <c r="AH63" s="53"/>
       <c r="AI63" s="53"/>
     </row>
-    <row r="64" spans="1:35" s="77" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" s="77" customFormat="1" ht="11">
       <c r="A64" s="84" t="s">
         <v>71</v>
       </c>
@@ -18227,7 +18234,7 @@
       <c r="AH64" s="53"/>
       <c r="AI64" s="53"/>
     </row>
-    <row r="65" spans="1:35" s="77" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" s="77" customFormat="1" ht="15.5" hidden="1" customHeight="1">
       <c r="A65" s="94"/>
       <c r="B65" s="95"/>
       <c r="C65" s="96"/>
@@ -18264,7 +18271,7 @@
       <c r="AH65" s="53"/>
       <c r="AI65" s="53"/>
     </row>
-    <row r="66" spans="1:35" s="77" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" s="77" customFormat="1" ht="12" thickBot="1">
       <c r="A66" s="171"/>
       <c r="B66" s="172"/>
       <c r="C66" s="172"/>
@@ -18301,7 +18308,7 @@
       <c r="AH66" s="53"/>
       <c r="AI66" s="53"/>
     </row>
-    <row r="67" spans="1:35" s="77" customFormat="1" ht="11.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" s="77" customFormat="1" ht="11.5" customHeight="1" thickTop="1">
       <c r="A67" s="174"/>
       <c r="B67" s="174"/>
       <c r="C67" s="174"/>
@@ -18338,7 +18345,7 @@
       <c r="AH67" s="53"/>
       <c r="AI67" s="53"/>
     </row>
-    <row r="68" spans="1:35" s="77" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" s="77" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="A68" s="175" t="s">
         <v>134</v>
       </c>
@@ -18377,7 +18384,7 @@
       <c r="AH68" s="53"/>
       <c r="AI68" s="53"/>
     </row>
-    <row r="69" spans="1:35" s="77" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" s="77" customFormat="1" ht="38" thickTop="1">
       <c r="A69" s="172"/>
       <c r="B69" s="172"/>
       <c r="C69" s="177" t="s">
@@ -18460,7 +18467,7 @@
       <c r="AH69" s="53"/>
       <c r="AI69" s="53"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="101"/>
       <c r="B70" s="101"/>
       <c r="C70" s="183" t="s">
@@ -18541,7 +18548,7 @@
       <c r="AH70" s="35"/>
       <c r="AI70" s="35"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="101"/>
       <c r="B71" s="101"/>
       <c r="C71" s="67" t="s">
@@ -18622,7 +18629,7 @@
       <c r="AH71" s="35"/>
       <c r="AI71" s="35"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="101"/>
       <c r="B72" s="101"/>
       <c r="C72" s="67" t="s">
@@ -18703,7 +18710,7 @@
       <c r="AH72" s="35"/>
       <c r="AI72" s="35"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="101"/>
       <c r="B73" s="101"/>
       <c r="C73" s="67" t="s">
@@ -18784,7 +18791,7 @@
       <c r="AH73" s="35"/>
       <c r="AI73" s="35"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="101"/>
       <c r="B74" s="101"/>
       <c r="C74" s="67" t="s">
@@ -18865,7 +18872,7 @@
       <c r="AH74" s="35"/>
       <c r="AI74" s="35"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="101"/>
       <c r="B75" s="101"/>
       <c r="C75" s="67" t="s">
@@ -18946,7 +18953,7 @@
       <c r="AH75" s="35"/>
       <c r="AI75" s="35"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="101"/>
       <c r="B76" s="101"/>
       <c r="C76" s="67" t="s">
@@ -19027,7 +19034,7 @@
       <c r="AH76" s="35"/>
       <c r="AI76" s="35"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="101"/>
       <c r="B77" s="101"/>
       <c r="C77" s="67" t="s">
@@ -19108,7 +19115,7 @@
       <c r="AH77" s="35"/>
       <c r="AI77" s="35"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="101"/>
       <c r="B78" s="101"/>
       <c r="C78" s="67" t="s">
@@ -19189,7 +19196,7 @@
       <c r="AH78" s="35"/>
       <c r="AI78" s="35"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="101"/>
       <c r="B79" s="101"/>
       <c r="C79" s="67" t="s">
@@ -19270,7 +19277,7 @@
       <c r="AH79" s="35"/>
       <c r="AI79" s="35"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="101"/>
       <c r="B80" s="101"/>
       <c r="C80" s="67" t="s">
@@ -19351,7 +19358,7 @@
       <c r="AH80" s="35"/>
       <c r="AI80" s="35"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="101"/>
       <c r="B81" s="101"/>
       <c r="C81" s="67" t="s">
@@ -19432,7 +19439,7 @@
       <c r="AH81" s="35"/>
       <c r="AI81" s="35"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35">
       <c r="A82" s="101"/>
       <c r="B82" s="101"/>
       <c r="C82" s="67" t="s">
@@ -19513,7 +19520,7 @@
       <c r="AH82" s="35"/>
       <c r="AI82" s="35"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="101"/>
       <c r="B83" s="101"/>
       <c r="C83" s="67" t="s">
@@ -19594,7 +19601,7 @@
       <c r="AH83" s="35"/>
       <c r="AI83" s="35"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35">
       <c r="A84" s="101"/>
       <c r="B84" s="101"/>
       <c r="C84" s="67" t="s">
@@ -19675,7 +19682,7 @@
       <c r="AH84" s="35"/>
       <c r="AI84" s="35"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35">
       <c r="A85" s="101"/>
       <c r="B85" s="101"/>
       <c r="C85" s="67" t="s">
@@ -19756,7 +19763,7 @@
       <c r="AH85" s="35"/>
       <c r="AI85" s="35"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35">
       <c r="A86" s="101"/>
       <c r="B86" s="101"/>
       <c r="C86" s="67" t="s">
@@ -19837,7 +19844,7 @@
       <c r="AH86" s="35"/>
       <c r="AI86" s="35"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35">
       <c r="A87" s="101"/>
       <c r="B87" s="101"/>
       <c r="C87" s="67" t="s">
@@ -19918,7 +19925,7 @@
       <c r="AH87" s="35"/>
       <c r="AI87" s="35"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35">
       <c r="A88" s="101"/>
       <c r="B88" s="101"/>
       <c r="C88" s="67" t="s">
@@ -19999,7 +20006,7 @@
       <c r="AH88" s="35"/>
       <c r="AI88" s="35"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35">
       <c r="A89" s="101"/>
       <c r="B89" s="101"/>
       <c r="C89" s="67" t="s">
@@ -20080,7 +20087,7 @@
       <c r="AH89" s="35"/>
       <c r="AI89" s="35"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35">
       <c r="A90" s="101"/>
       <c r="B90" s="101"/>
       <c r="C90" s="67" t="s">
@@ -20161,7 +20168,7 @@
       <c r="AH90" s="35"/>
       <c r="AI90" s="35"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35">
       <c r="A91" s="101"/>
       <c r="B91" s="101"/>
       <c r="C91" s="67" t="s">
@@ -20242,7 +20249,7 @@
       <c r="AH91" s="35"/>
       <c r="AI91" s="35"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35">
       <c r="A92" s="101"/>
       <c r="B92" s="101"/>
       <c r="C92" s="67" t="s">
@@ -20323,7 +20330,7 @@
       <c r="AH92" s="35"/>
       <c r="AI92" s="35"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35">
       <c r="A93" s="101"/>
       <c r="B93" s="101"/>
       <c r="C93" s="67" t="s">
@@ -20404,7 +20411,7 @@
       <c r="AH93" s="35"/>
       <c r="AI93" s="35"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35">
       <c r="A94" s="101"/>
       <c r="B94" s="101"/>
       <c r="C94" s="67" t="s">
@@ -20485,7 +20492,7 @@
       <c r="AH94" s="35"/>
       <c r="AI94" s="35"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35">
       <c r="A95" s="101"/>
       <c r="B95" s="101"/>
       <c r="C95" s="67" t="s">
@@ -20566,7 +20573,7 @@
       <c r="AH95" s="35"/>
       <c r="AI95" s="35"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35">
       <c r="A96" s="101"/>
       <c r="B96" s="101"/>
       <c r="C96" s="67" t="s">
@@ -20647,7 +20654,7 @@
       <c r="AH96" s="35"/>
       <c r="AI96" s="35"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35">
       <c r="A97" s="101"/>
       <c r="B97" s="101"/>
       <c r="C97" s="67" t="s">
@@ -20728,7 +20735,7 @@
       <c r="AH97" s="35"/>
       <c r="AI97" s="35"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35">
       <c r="A98" s="101"/>
       <c r="B98" s="101"/>
       <c r="C98" s="67" t="s">
@@ -20809,7 +20816,7 @@
       <c r="AH98" s="35"/>
       <c r="AI98" s="35"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35">
       <c r="A99" s="101"/>
       <c r="B99" s="101"/>
       <c r="C99" s="67" t="s">
@@ -20890,7 +20897,7 @@
       <c r="AH99" s="35"/>
       <c r="AI99" s="35"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35">
       <c r="A100" s="101"/>
       <c r="B100" s="101"/>
       <c r="C100" s="67" t="s">
@@ -20971,7 +20978,7 @@
       <c r="AH100" s="35"/>
       <c r="AI100" s="35"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35">
       <c r="A101" s="101"/>
       <c r="B101" s="101"/>
       <c r="C101" s="67" t="s">
@@ -21052,7 +21059,7 @@
       <c r="AH101" s="35"/>
       <c r="AI101" s="35"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35">
       <c r="A102" s="101"/>
       <c r="B102" s="101"/>
       <c r="C102" s="67" t="s">
@@ -21133,7 +21140,7 @@
       <c r="AH102" s="35"/>
       <c r="AI102" s="35"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35">
       <c r="A103" s="101"/>
       <c r="B103" s="101"/>
       <c r="C103" s="67" t="s">
@@ -21214,7 +21221,7 @@
       <c r="AH103" s="35"/>
       <c r="AI103" s="35"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35">
       <c r="A104" s="101"/>
       <c r="B104" s="101"/>
       <c r="C104" s="67" t="s">
@@ -21295,7 +21302,7 @@
       <c r="AH104" s="35"/>
       <c r="AI104" s="35"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35">
       <c r="A105" s="101"/>
       <c r="B105" s="101"/>
       <c r="C105" s="67" t="s">
@@ -21376,7 +21383,7 @@
       <c r="AH105" s="35"/>
       <c r="AI105" s="35"/>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35">
       <c r="A106" s="101"/>
       <c r="B106" s="101"/>
       <c r="C106" s="67" t="s">
@@ -21457,7 +21464,7 @@
       <c r="AH106" s="35"/>
       <c r="AI106" s="35"/>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35">
       <c r="A107" s="101"/>
       <c r="B107" s="101"/>
       <c r="C107" s="67" t="s">
@@ -21538,7 +21545,7 @@
       <c r="AH107" s="35"/>
       <c r="AI107" s="35"/>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35">
       <c r="A108" s="101"/>
       <c r="B108" s="101"/>
       <c r="C108" s="67" t="s">
@@ -21619,7 +21626,7 @@
       <c r="AH108" s="35"/>
       <c r="AI108" s="35"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35">
       <c r="A109" s="101"/>
       <c r="B109" s="101"/>
       <c r="C109" s="67" t="s">
@@ -21700,7 +21707,7 @@
       <c r="AH109" s="35"/>
       <c r="AI109" s="35"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35">
       <c r="A110" s="101"/>
       <c r="B110" s="101"/>
       <c r="C110" s="67" t="s">
@@ -21781,7 +21788,7 @@
       <c r="AH110" s="35"/>
       <c r="AI110" s="35"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35">
       <c r="A111" s="101"/>
       <c r="B111" s="101"/>
       <c r="C111" s="67" t="s">
@@ -21862,7 +21869,7 @@
       <c r="AH111" s="35"/>
       <c r="AI111" s="35"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35">
       <c r="A112" s="101"/>
       <c r="B112" s="101"/>
       <c r="C112" s="67" t="s">
@@ -21943,7 +21950,7 @@
       <c r="AH112" s="35"/>
       <c r="AI112" s="35"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35">
       <c r="A113" s="101"/>
       <c r="B113" s="101"/>
       <c r="C113" s="67" t="s">
@@ -22024,7 +22031,7 @@
       <c r="AH113" s="35"/>
       <c r="AI113" s="35"/>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35">
       <c r="A114" s="101"/>
       <c r="B114" s="101"/>
       <c r="C114" s="67" t="s">
@@ -22105,7 +22112,7 @@
       <c r="AH114" s="35"/>
       <c r="AI114" s="35"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35">
       <c r="A115" s="101"/>
       <c r="B115" s="101"/>
       <c r="C115" s="67" t="s">
@@ -22186,7 +22193,7 @@
       <c r="AH115" s="35"/>
       <c r="AI115" s="35"/>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35">
       <c r="A116" s="101"/>
       <c r="B116" s="101"/>
       <c r="C116" s="67" t="s">
@@ -22267,7 +22274,7 @@
       <c r="AH116" s="35"/>
       <c r="AI116" s="35"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35">
       <c r="A117" s="101"/>
       <c r="B117" s="101"/>
       <c r="C117" s="67" t="s">
@@ -22348,7 +22355,7 @@
       <c r="AH117" s="35"/>
       <c r="AI117" s="35"/>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35">
       <c r="A118" s="101"/>
       <c r="B118" s="101"/>
       <c r="C118" s="67" t="s">
@@ -22429,7 +22436,7 @@
       <c r="AH118" s="35"/>
       <c r="AI118" s="35"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35">
       <c r="A119" s="101"/>
       <c r="B119" s="101"/>
       <c r="C119" s="67" t="s">
@@ -22510,7 +22517,7 @@
       <c r="AH119" s="35"/>
       <c r="AI119" s="35"/>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35">
       <c r="A120" s="101"/>
       <c r="B120" s="101"/>
       <c r="C120" s="67" t="s">
@@ -22591,7 +22598,7 @@
       <c r="AH120" s="35"/>
       <c r="AI120" s="35"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35">
       <c r="A121" s="101"/>
       <c r="B121" s="101"/>
       <c r="C121" s="67" t="s">
@@ -22672,7 +22679,7 @@
       <c r="AH121" s="35"/>
       <c r="AI121" s="35"/>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35">
       <c r="A122" s="101"/>
       <c r="B122" s="101"/>
       <c r="C122" s="67" t="s">
@@ -22753,7 +22760,7 @@
       <c r="AH122" s="35"/>
       <c r="AI122" s="35"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35">
       <c r="A123" s="101"/>
       <c r="B123" s="101"/>
       <c r="C123" s="67" t="s">
@@ -22834,7 +22841,7 @@
       <c r="AH123" s="35"/>
       <c r="AI123" s="35"/>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35">
       <c r="A124" s="101"/>
       <c r="B124" s="101"/>
       <c r="C124" s="67" t="s">
@@ -22915,7 +22922,7 @@
       <c r="AH124" s="35"/>
       <c r="AI124" s="35"/>
     </row>
-    <row r="125" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" ht="16" thickBot="1">
       <c r="A125" s="101"/>
       <c r="B125" s="101"/>
       <c r="C125" s="186" t="s">
@@ -22996,7 +23003,7 @@
       <c r="AH125" s="35"/>
       <c r="AI125" s="35"/>
     </row>
-    <row r="126" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="16" thickTop="1">
       <c r="A126" s="174"/>
       <c r="B126" s="174"/>
       <c r="C126" s="174"/>
@@ -23033,7 +23040,7 @@
       <c r="AH126" s="35"/>
       <c r="AI126" s="35"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35">
       <c r="A127" s="35"/>
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
@@ -23070,7 +23077,7 @@
       <c r="AH127" s="35"/>
       <c r="AI127" s="35"/>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35">
       <c r="A128" s="35"/>
       <c r="B128" s="35"/>
       <c r="C128" s="35"/>
@@ -23107,7 +23114,7 @@
       <c r="AH128" s="35"/>
       <c r="AI128" s="35"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35">
       <c r="A129" s="35"/>
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
@@ -23144,7 +23151,7 @@
       <c r="AH129" s="35"/>
       <c r="AI129" s="35"/>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35">
       <c r="A130" s="35"/>
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
@@ -23181,7 +23188,7 @@
       <c r="AH130" s="35"/>
       <c r="AI130" s="35"/>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35">
       <c r="A131" s="35"/>
       <c r="B131" s="35"/>
       <c r="C131" s="35"/>
@@ -23218,7 +23225,7 @@
       <c r="AH131" s="35"/>
       <c r="AI131" s="35"/>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35">
       <c r="A132" s="35"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -23255,7 +23262,7 @@
       <c r="AH132" s="35"/>
       <c r="AI132" s="35"/>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35">
       <c r="A133" s="35"/>
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
@@ -23292,7 +23299,7 @@
       <c r="AH133" s="35"/>
       <c r="AI133" s="35"/>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35">
       <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
@@ -23329,7 +23336,7 @@
       <c r="AH134" s="35"/>
       <c r="AI134" s="35"/>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35">
       <c r="A135" s="35"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -23366,7 +23373,7 @@
       <c r="AH135" s="35"/>
       <c r="AI135" s="35"/>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35">
       <c r="A136" s="35"/>
       <c r="B136" s="35"/>
       <c r="C136" s="35"/>
@@ -23403,7 +23410,7 @@
       <c r="AH136" s="35"/>
       <c r="AI136" s="35"/>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35">
       <c r="A137" s="35"/>
       <c r="B137" s="35"/>
       <c r="C137" s="35"/>
@@ -23440,7 +23447,7 @@
       <c r="AH137" s="35"/>
       <c r="AI137" s="35"/>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35">
       <c r="A138" s="35"/>
       <c r="B138" s="35"/>
       <c r="C138" s="35"/>
@@ -23477,7 +23484,7 @@
       <c r="AH138" s="35"/>
       <c r="AI138" s="35"/>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35">
       <c r="A139" s="35"/>
       <c r="B139" s="35"/>
       <c r="C139" s="35"/>
@@ -23514,7 +23521,7 @@
       <c r="AH139" s="35"/>
       <c r="AI139" s="35"/>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35">
       <c r="A140" s="35"/>
       <c r="B140" s="35"/>
       <c r="C140" s="35"/>
@@ -23551,7 +23558,7 @@
       <c r="AH140" s="35"/>
       <c r="AI140" s="35"/>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35">
       <c r="A141" s="35"/>
       <c r="B141" s="35"/>
       <c r="C141" s="35"/>
@@ -23588,7 +23595,7 @@
       <c r="AH141" s="35"/>
       <c r="AI141" s="35"/>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35">
       <c r="A142" s="35"/>
       <c r="B142" s="35"/>
       <c r="C142" s="35"/>
@@ -23625,7 +23632,7 @@
       <c r="AH142" s="35"/>
       <c r="AI142" s="35"/>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35">
       <c r="A143" s="35"/>
       <c r="B143" s="35"/>
       <c r="C143" s="35"/>
@@ -23662,7 +23669,7 @@
       <c r="AH143" s="35"/>
       <c r="AI143" s="35"/>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35">
       <c r="A144" s="35"/>
       <c r="B144" s="35"/>
       <c r="C144" s="35"/>
@@ -23699,7 +23706,7 @@
       <c r="AH144" s="35"/>
       <c r="AI144" s="35"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30">
       <c r="A145" s="35"/>
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
@@ -23731,7 +23738,7 @@
       <c r="AC145" s="35"/>
       <c r="AD145" s="35"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30">
       <c r="A146" s="35"/>
       <c r="B146" s="35"/>
       <c r="C146" s="35"/>
@@ -23763,7 +23770,7 @@
       <c r="AC146" s="35"/>
       <c r="AD146" s="35"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30">
       <c r="A147" s="35"/>
       <c r="B147" s="35"/>
       <c r="C147" s="35"/>
@@ -23795,7 +23802,7 @@
       <c r="AC147" s="35"/>
       <c r="AD147" s="35"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30">
       <c r="A148" s="35"/>
       <c r="B148" s="35"/>
       <c r="C148" s="35"/>
@@ -23827,7 +23834,7 @@
       <c r="AC148" s="35"/>
       <c r="AD148" s="35"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30">
       <c r="A149" s="35"/>
       <c r="B149" s="35"/>
       <c r="C149" s="35"/>
@@ -23859,7 +23866,7 @@
       <c r="AC149" s="35"/>
       <c r="AD149" s="35"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30">
       <c r="A150" s="35"/>
       <c r="B150" s="35"/>
       <c r="C150" s="35"/>
@@ -23891,7 +23898,7 @@
       <c r="AC150" s="35"/>
       <c r="AD150" s="35"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30">
       <c r="A151" s="35"/>
       <c r="B151" s="35"/>
       <c r="C151" s="35"/>
@@ -23923,7 +23930,7 @@
       <c r="AC151" s="35"/>
       <c r="AD151" s="35"/>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30">
       <c r="A152" s="35"/>
       <c r="B152" s="35"/>
       <c r="C152" s="35"/>
@@ -23955,7 +23962,7 @@
       <c r="AC152" s="35"/>
       <c r="AD152" s="35"/>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30">
       <c r="A153" s="35"/>
       <c r="B153" s="35"/>
       <c r="C153" s="35"/>
@@ -23987,7 +23994,7 @@
       <c r="AC153" s="35"/>
       <c r="AD153" s="35"/>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30">
       <c r="A154" s="35"/>
       <c r="B154" s="35"/>
       <c r="C154" s="35"/>
@@ -24019,7 +24026,7 @@
       <c r="AC154" s="35"/>
       <c r="AD154" s="35"/>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30">
       <c r="A155" s="35"/>
       <c r="B155" s="35"/>
       <c r="C155" s="35"/>
@@ -24051,7 +24058,7 @@
       <c r="AC155" s="35"/>
       <c r="AD155" s="35"/>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30">
       <c r="A156" s="35"/>
       <c r="B156" s="35"/>
       <c r="C156" s="35"/>
@@ -24083,7 +24090,7 @@
       <c r="AC156" s="35"/>
       <c r="AD156" s="35"/>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30">
       <c r="A157" s="35"/>
       <c r="B157" s="35"/>
       <c r="C157" s="35"/>
@@ -24115,7 +24122,7 @@
       <c r="AC157" s="35"/>
       <c r="AD157" s="35"/>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30">
       <c r="A158" s="35"/>
       <c r="B158" s="35"/>
       <c r="C158" s="35"/>
@@ -24147,7 +24154,7 @@
       <c r="AC158" s="35"/>
       <c r="AD158" s="35"/>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30">
       <c r="A159" s="35"/>
       <c r="B159" s="35"/>
       <c r="C159" s="35"/>
@@ -24179,7 +24186,7 @@
       <c r="AC159" s="35"/>
       <c r="AD159" s="35"/>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30">
       <c r="A160" s="35"/>
       <c r="B160" s="35"/>
       <c r="C160" s="35"/>
@@ -24211,7 +24218,7 @@
       <c r="AC160" s="35"/>
       <c r="AD160" s="35"/>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30">
       <c r="A161" s="35"/>
       <c r="B161" s="35"/>
       <c r="C161" s="35"/>
@@ -24224,7 +24231,7 @@
       <c r="AC161" s="35"/>
       <c r="AD161" s="35"/>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30">
       <c r="Y162" s="35"/>
       <c r="Z162" s="35"/>
       <c r="AA162" s="35"/>
@@ -24232,7 +24239,7 @@
       <c r="AC162" s="35"/>
       <c r="AD162" s="35"/>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30">
       <c r="Y163" s="35"/>
       <c r="Z163" s="35"/>
       <c r="AA163" s="35"/>
@@ -24264,97 +24271,97 @@
       <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="10" width="9.7109375" style="198" customWidth="1"/>
-    <col min="11" max="16384" width="9.7109375" style="198"/>
+    <col min="1" max="10" width="9.6640625" style="198" customWidth="1"/>
+    <col min="11" max="16384" width="9.6640625" style="198"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="265" t="s">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A1" s="251" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="265"/>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-    </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="266" t="s">
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A2" s="252" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266" t="s">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="267" t="s">
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A3" s="253" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="270" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="256" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="272"/>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="258"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="259" t="s">
         <v>291</v>
       </c>
@@ -24382,62 +24389,62 @@
       <c r="U4" s="263"/>
       <c r="V4" s="264"/>
     </row>
-    <row r="5" spans="1:23" s="199" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
+    <row r="5" spans="1:23" s="199" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A5" s="249" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="265" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="248" t="s">
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="249" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="248" t="s">
+      <c r="G5" s="249" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="248" t="s">
+      <c r="H5" s="249" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="248" t="s">
+      <c r="I5" s="249" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="248" t="s">
+      <c r="J5" s="249" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="248" t="s">
+      <c r="K5" s="249" t="s">
         <v>293</v>
       </c>
-      <c r="L5" s="250" t="s">
+      <c r="L5" s="265" t="s">
         <v>300</v>
       </c>
-      <c r="M5" s="251"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="253" t="s">
+      <c r="M5" s="266"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="268" t="s">
         <v>301</v>
       </c>
-      <c r="P5" s="255" t="s">
+      <c r="P5" s="270" t="s">
         <v>302</v>
       </c>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="256"/>
-      <c r="S5" s="257" t="s">
+      <c r="Q5" s="266"/>
+      <c r="R5" s="271"/>
+      <c r="S5" s="272" t="s">
         <v>303</v>
       </c>
-      <c r="T5" s="248" t="s">
+      <c r="T5" s="249" t="s">
         <v>304</v>
       </c>
-      <c r="U5" s="248" t="s">
+      <c r="U5" s="249" t="s">
         <v>305</v>
       </c>
-      <c r="V5" s="248" t="s">
+      <c r="V5" s="249" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="249"/>
+    <row r="6" spans="1:23" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A6" s="250"/>
       <c r="B6" s="200" t="s">
         <v>307</v>
       </c>
@@ -24450,12 +24457,12 @@
       <c r="E6" s="200" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
+      <c r="F6" s="250"/>
+      <c r="G6" s="250"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="250"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="250"/>
       <c r="L6" s="200" t="s">
         <v>311</v>
       </c>
@@ -24465,7 +24472,7 @@
       <c r="N6" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="O6" s="254"/>
+      <c r="O6" s="269"/>
       <c r="P6" s="200" t="s">
         <v>314</v>
       </c>
@@ -24475,15 +24482,15 @@
       <c r="R6" s="200" t="s">
         <v>316</v>
       </c>
-      <c r="S6" s="258"/>
-      <c r="T6" s="249"/>
-      <c r="U6" s="249"/>
-      <c r="V6" s="249"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="250"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="250"/>
       <c r="W6" s="201" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="202">
         <v>1977</v>
       </c>
@@ -24551,7 +24558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A8" s="209">
         <v>1978</v>
       </c>
@@ -24619,7 +24626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="209">
         <v>1979</v>
       </c>
@@ -24687,7 +24694,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="209">
         <v>1980</v>
       </c>
@@ -24755,7 +24762,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="209">
         <v>1981</v>
       </c>
@@ -24823,7 +24830,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="209">
         <v>1982</v>
       </c>
@@ -24891,7 +24898,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A13" s="209">
         <v>1983</v>
       </c>
@@ -24959,7 +24966,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="209">
         <v>1984</v>
       </c>
@@ -25027,7 +25034,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="209">
         <v>1985</v>
       </c>
@@ -25095,7 +25102,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="209">
         <v>1986</v>
       </c>
@@ -25163,7 +25170,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A17" s="209">
         <v>1987</v>
       </c>
@@ -25231,7 +25238,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A18" s="209">
         <v>1988</v>
       </c>
@@ -25299,7 +25306,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="209">
         <v>1989</v>
       </c>
@@ -25367,7 +25374,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="209">
         <v>1990</v>
       </c>
@@ -25435,7 +25442,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="209">
         <v>1991</v>
       </c>
@@ -25503,7 +25510,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A22" s="209">
         <v>1992</v>
       </c>
@@ -25571,7 +25578,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A23" s="209">
         <v>1993</v>
       </c>
@@ -25639,7 +25646,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A24" s="209">
         <v>1994</v>
       </c>
@@ -25707,7 +25714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A25" s="209">
         <v>1995</v>
       </c>
@@ -25775,7 +25782,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A26" s="209">
         <v>1996</v>
       </c>
@@ -25843,7 +25850,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A27" s="209">
         <v>1997</v>
       </c>
@@ -25911,7 +25918,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A28" s="209">
         <v>1998</v>
       </c>
@@ -25979,7 +25986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A29" s="209">
         <v>1999</v>
       </c>
@@ -26047,7 +26054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="209">
         <v>2000</v>
       </c>
@@ -26115,7 +26122,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A31" s="209">
         <v>2001</v>
       </c>
@@ -26183,7 +26190,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A32" s="209">
         <v>2002</v>
       </c>
@@ -26251,7 +26258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A33" s="209">
         <v>2003</v>
       </c>
@@ -26319,7 +26326,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A34" s="209">
         <v>2004</v>
       </c>
@@ -26387,7 +26394,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A35" s="202">
         <v>2005</v>
       </c>
@@ -26455,7 +26462,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A36" s="202">
         <v>2006</v>
       </c>
@@ -26523,7 +26530,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A37" s="202">
         <v>2007</v>
       </c>
@@ -26591,7 +26598,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A38" s="202">
         <v>2008</v>
       </c>
@@ -26659,7 +26666,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A39" s="202">
         <v>2009</v>
       </c>
@@ -26727,7 +26734,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A40" s="202">
         <v>2010</v>
       </c>
@@ -26795,7 +26802,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="202">
         <v>2011</v>
       </c>
@@ -26863,7 +26870,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A42" s="202">
         <v>2012</v>
       </c>
@@ -26931,7 +26938,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A43" s="202">
         <v>2013</v>
       </c>
@@ -26999,7 +27006,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A44" s="202">
         <v>2014</v>
       </c>
@@ -27067,7 +27074,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A45" s="202">
         <v>2015</v>
       </c>
@@ -27135,7 +27142,7 @@
         <v>5.5333215142659578</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A46" s="202">
         <v>2016</v>
       </c>
@@ -27203,7 +27210,7 @@
         <v>5.5868496806287355</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="202">
         <v>2017</v>
       </c>
@@ -27271,7 +27278,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A48" s="202">
         <v>2018</v>
       </c>
@@ -27339,7 +27346,7 @@
         <v>5.6059999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A49" s="202">
         <v>2019</v>
       </c>
@@ -27407,7 +27414,7 @@
         <v>5.6269999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="13.5" customHeight="1">
       <c r="A50" s="218" t="s">
         <v>325</v>
       </c>
@@ -27432,7 +27439,7 @@
       <c r="U50" s="219"/>
       <c r="V50" s="219"/>
     </row>
-    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="13.5" customHeight="1">
       <c r="A51" s="218" t="s">
         <v>326</v>
       </c>
@@ -27457,7 +27464,7 @@
       <c r="U51" s="219"/>
       <c r="V51" s="219"/>
     </row>
-    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="13.5" customHeight="1">
       <c r="A52" s="218" t="s">
         <v>327</v>
       </c>
@@ -27482,7 +27489,7 @@
       <c r="U52" s="219"/>
       <c r="V52" s="219"/>
     </row>
-    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="13.5" customHeight="1">
       <c r="A53" s="218" t="s">
         <v>328</v>
       </c>
@@ -27507,7 +27514,7 @@
       <c r="U53" s="219"/>
       <c r="V53" s="219"/>
     </row>
-    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="13.5" customHeight="1">
       <c r="A54" s="218" t="s">
         <v>329</v>
       </c>
@@ -27532,7 +27539,7 @@
       <c r="U54" s="219"/>
       <c r="V54" s="219"/>
     </row>
-    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="13.5" customHeight="1">
       <c r="A55" s="218" t="s">
         <v>330</v>
       </c>
@@ -27557,7 +27564,7 @@
       <c r="U55" s="219"/>
       <c r="V55" s="219"/>
     </row>
-    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="13.5" customHeight="1">
       <c r="A56" s="218" t="s">
         <v>331</v>
       </c>
@@ -27582,7 +27589,7 @@
       <c r="U56" s="219"/>
       <c r="V56" s="219"/>
     </row>
-    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="13.5" customHeight="1">
       <c r="A57" s="218" t="s">
         <v>332</v>
       </c>
@@ -27607,7 +27614,7 @@
       <c r="U57" s="219"/>
       <c r="V57" s="219"/>
     </row>
-    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="13.5" customHeight="1">
       <c r="A58" s="220" t="s">
         <v>333</v>
       </c>
@@ -27632,7 +27639,7 @@
       <c r="U58" s="219"/>
       <c r="V58" s="219"/>
     </row>
-    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="13.5" customHeight="1">
       <c r="A59" s="221"/>
       <c r="B59" s="219"/>
       <c r="C59" s="219"/>
@@ -27655,7 +27662,7 @@
       <c r="U59" s="219"/>
       <c r="V59" s="219"/>
     </row>
-    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="13.5" customHeight="1">
       <c r="A60" s="221"/>
       <c r="B60" s="219"/>
       <c r="C60" s="219"/>
@@ -27678,7 +27685,7 @@
       <c r="U60" s="219"/>
       <c r="V60" s="219"/>
     </row>
-    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="13.5" customHeight="1">
       <c r="A61" s="221"/>
       <c r="B61" s="219"/>
       <c r="C61" s="219"/>
@@ -27701,7 +27708,7 @@
       <c r="U61" s="219"/>
       <c r="V61" s="219"/>
     </row>
-    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="13.5" customHeight="1">
       <c r="A62" s="221"/>
       <c r="B62" s="219"/>
       <c r="C62" s="219"/>
@@ -27724,7 +27731,7 @@
       <c r="U62" s="219"/>
       <c r="V62" s="219"/>
     </row>
-    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="13.5" customHeight="1">
       <c r="A63" s="221"/>
       <c r="B63" s="219"/>
       <c r="C63" s="219"/>
@@ -27747,7 +27754,7 @@
       <c r="U63" s="219"/>
       <c r="V63" s="219"/>
     </row>
-    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="13.5" customHeight="1">
       <c r="A64" s="221"/>
       <c r="B64" s="219"/>
       <c r="C64" s="219"/>
@@ -27770,7 +27777,7 @@
       <c r="U64" s="219"/>
       <c r="V64" s="219"/>
     </row>
-    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="13.5" customHeight="1">
       <c r="A65" s="221"/>
       <c r="B65" s="219"/>
       <c r="C65" s="219"/>
@@ -27793,7 +27800,7 @@
       <c r="U65" s="219"/>
       <c r="V65" s="219"/>
     </row>
-    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="13.5" customHeight="1">
       <c r="A66" s="221"/>
       <c r="B66" s="219"/>
       <c r="C66" s="219"/>
@@ -27816,7 +27823,7 @@
       <c r="U66" s="219"/>
       <c r="V66" s="219"/>
     </row>
-    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="13.5" customHeight="1">
       <c r="A67" s="221"/>
       <c r="B67" s="219"/>
       <c r="C67" s="219"/>
@@ -27839,7 +27846,7 @@
       <c r="U67" s="219"/>
       <c r="V67" s="219"/>
     </row>
-    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="13.5" customHeight="1">
       <c r="A68" s="221"/>
       <c r="B68" s="219"/>
       <c r="C68" s="219"/>
@@ -27862,7 +27869,7 @@
       <c r="U68" s="219"/>
       <c r="V68" s="219"/>
     </row>
-    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="13.5" customHeight="1">
       <c r="A69" s="221"/>
       <c r="B69" s="219"/>
       <c r="C69" s="219"/>
@@ -27885,7 +27892,7 @@
       <c r="U69" s="219"/>
       <c r="V69" s="219"/>
     </row>
-    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="13.5" customHeight="1">
       <c r="A70" s="221"/>
       <c r="B70" s="219"/>
       <c r="C70" s="219"/>
@@ -27908,7 +27915,7 @@
       <c r="U70" s="219"/>
       <c r="V70" s="219"/>
     </row>
-    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="13.5" customHeight="1">
       <c r="A71" s="221"/>
       <c r="B71" s="219"/>
       <c r="C71" s="219"/>
@@ -27931,7 +27938,7 @@
       <c r="U71" s="219"/>
       <c r="V71" s="219"/>
     </row>
-    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="13.5" customHeight="1">
       <c r="A72" s="221"/>
       <c r="B72" s="219"/>
       <c r="C72" s="219"/>
@@ -27954,7 +27961,7 @@
       <c r="U72" s="219"/>
       <c r="V72" s="219"/>
     </row>
-    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="13.5" customHeight="1">
       <c r="A73" s="221"/>
       <c r="B73" s="219"/>
       <c r="C73" s="219"/>
@@ -27977,7 +27984,7 @@
       <c r="U73" s="219"/>
       <c r="V73" s="219"/>
     </row>
-    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="13.5" customHeight="1">
       <c r="A74" s="221"/>
       <c r="B74" s="219"/>
       <c r="C74" s="219"/>
@@ -28000,7 +28007,7 @@
       <c r="U74" s="219"/>
       <c r="V74" s="219"/>
     </row>
-    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="13.5" customHeight="1">
       <c r="A75" s="221"/>
       <c r="B75" s="219"/>
       <c r="C75" s="219"/>
@@ -28023,7 +28030,7 @@
       <c r="U75" s="219"/>
       <c r="V75" s="219"/>
     </row>
-    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="13.5" customHeight="1">
       <c r="A76" s="221"/>
       <c r="B76" s="219"/>
       <c r="C76" s="219"/>
@@ -28046,7 +28053,7 @@
       <c r="U76" s="219"/>
       <c r="V76" s="219"/>
     </row>
-    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="13.5" customHeight="1">
       <c r="A77" s="221"/>
       <c r="B77" s="219"/>
       <c r="C77" s="219"/>
@@ -28069,7 +28076,7 @@
       <c r="U77" s="219"/>
       <c r="V77" s="219"/>
     </row>
-    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="13.5" customHeight="1">
       <c r="A78" s="221"/>
       <c r="B78" s="219"/>
       <c r="C78" s="219"/>
@@ -28092,7 +28099,7 @@
       <c r="U78" s="219"/>
       <c r="V78" s="219"/>
     </row>
-    <row r="79" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="13.5" customHeight="1">
       <c r="A79" s="221"/>
       <c r="B79" s="219"/>
       <c r="C79" s="219"/>
@@ -28115,7 +28122,7 @@
       <c r="U79" s="219"/>
       <c r="V79" s="219"/>
     </row>
-    <row r="80" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="13.5" customHeight="1">
       <c r="A80" s="221"/>
       <c r="B80" s="219"/>
       <c r="C80" s="219"/>
@@ -28138,7 +28145,7 @@
       <c r="U80" s="219"/>
       <c r="V80" s="219"/>
     </row>
-    <row r="81" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="13.5" customHeight="1">
       <c r="A81" s="221"/>
       <c r="B81" s="219"/>
       <c r="C81" s="219"/>
@@ -28161,7 +28168,7 @@
       <c r="U81" s="219"/>
       <c r="V81" s="219"/>
     </row>
-    <row r="82" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="13.5" customHeight="1">
       <c r="A82" s="221"/>
       <c r="B82" s="219"/>
       <c r="C82" s="219"/>
@@ -28184,7 +28191,7 @@
       <c r="U82" s="219"/>
       <c r="V82" s="219"/>
     </row>
-    <row r="83" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="13.5" customHeight="1">
       <c r="A83" s="221"/>
       <c r="B83" s="219"/>
       <c r="C83" s="219"/>
@@ -28207,7 +28214,7 @@
       <c r="U83" s="219"/>
       <c r="V83" s="219"/>
     </row>
-    <row r="84" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="13.5" customHeight="1">
       <c r="A84" s="221"/>
       <c r="B84" s="219"/>
       <c r="C84" s="219"/>
@@ -28230,7 +28237,7 @@
       <c r="U84" s="219"/>
       <c r="V84" s="219"/>
     </row>
-    <row r="85" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="13.5" customHeight="1">
       <c r="A85" s="221"/>
       <c r="B85" s="219"/>
       <c r="C85" s="219"/>
@@ -28253,7 +28260,7 @@
       <c r="U85" s="219"/>
       <c r="V85" s="219"/>
     </row>
-    <row r="86" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" ht="13.5" customHeight="1">
       <c r="A86" s="221"/>
       <c r="B86" s="219"/>
       <c r="C86" s="219"/>
@@ -28276,7 +28283,7 @@
       <c r="U86" s="219"/>
       <c r="V86" s="219"/>
     </row>
-    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" ht="13.5" customHeight="1">
       <c r="A87" s="221"/>
       <c r="B87" s="219"/>
       <c r="C87" s="219"/>
@@ -28299,7 +28306,7 @@
       <c r="U87" s="219"/>
       <c r="V87" s="219"/>
     </row>
-    <row r="88" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" ht="13.5" customHeight="1">
       <c r="A88" s="221"/>
       <c r="B88" s="219"/>
       <c r="C88" s="219"/>
@@ -28322,7 +28329,7 @@
       <c r="U88" s="219"/>
       <c r="V88" s="219"/>
     </row>
-    <row r="89" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="13.5" customHeight="1">
       <c r="A89" s="221"/>
       <c r="B89" s="219"/>
       <c r="C89" s="219"/>
@@ -28345,7 +28352,7 @@
       <c r="U89" s="219"/>
       <c r="V89" s="219"/>
     </row>
-    <row r="90" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" ht="13.5" customHeight="1">
       <c r="A90" s="221"/>
       <c r="B90" s="219"/>
       <c r="C90" s="219"/>
@@ -28368,7 +28375,7 @@
       <c r="U90" s="219"/>
       <c r="V90" s="219"/>
     </row>
-    <row r="91" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" ht="13.5" customHeight="1">
       <c r="A91" s="221"/>
       <c r="B91" s="219"/>
       <c r="C91" s="219"/>
@@ -28391,7 +28398,7 @@
       <c r="U91" s="219"/>
       <c r="V91" s="219"/>
     </row>
-    <row r="92" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" ht="13.5" customHeight="1">
       <c r="A92" s="221"/>
       <c r="B92" s="219"/>
       <c r="C92" s="219"/>
@@ -28414,7 +28421,7 @@
       <c r="U92" s="219"/>
       <c r="V92" s="219"/>
     </row>
-    <row r="93" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" ht="13.5" customHeight="1">
       <c r="A93" s="221"/>
       <c r="B93" s="219"/>
       <c r="C93" s="219"/>
@@ -28437,7 +28444,7 @@
       <c r="U93" s="219"/>
       <c r="V93" s="219"/>
     </row>
-    <row r="94" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" ht="13.5" customHeight="1">
       <c r="A94" s="221"/>
       <c r="B94" s="219"/>
       <c r="C94" s="219"/>
@@ -28460,7 +28467,7 @@
       <c r="U94" s="219"/>
       <c r="V94" s="219"/>
     </row>
-    <row r="95" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" ht="13.5" customHeight="1">
       <c r="A95" s="221"/>
       <c r="B95" s="219"/>
       <c r="C95" s="219"/>
@@ -28483,7 +28490,7 @@
       <c r="U95" s="219"/>
       <c r="V95" s="219"/>
     </row>
-    <row r="96" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" ht="13.5" customHeight="1">
       <c r="A96" s="221"/>
       <c r="B96" s="219"/>
       <c r="C96" s="219"/>
@@ -28506,7 +28513,7 @@
       <c r="U96" s="219"/>
       <c r="V96" s="219"/>
     </row>
-    <row r="97" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" ht="13.5" customHeight="1">
       <c r="A97" s="221"/>
       <c r="B97" s="219"/>
       <c r="C97" s="219"/>
@@ -28529,7 +28536,7 @@
       <c r="U97" s="219"/>
       <c r="V97" s="219"/>
     </row>
-    <row r="98" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" ht="13.5" customHeight="1">
       <c r="A98" s="221"/>
       <c r="B98" s="219"/>
       <c r="C98" s="219"/>
@@ -28552,7 +28559,7 @@
       <c r="U98" s="219"/>
       <c r="V98" s="219"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22">
       <c r="A99" s="221"/>
       <c r="B99" s="219"/>
       <c r="C99" s="219"/>
@@ -28575,7 +28582,7 @@
       <c r="U99" s="219"/>
       <c r="V99" s="219"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22">
       <c r="B100" s="219"/>
       <c r="C100" s="219"/>
       <c r="D100" s="219"/>
@@ -28599,12 +28606,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:V1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="K2:V2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="K3:V3"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="K4:V4"/>
     <mergeCell ref="A5:A6"/>
@@ -28613,15 +28629,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="W6" location="TOC!A1" display="RETURN TO TABLE OF CONTENTS" xr:uid="{15849D88-5BED-4E10-A2CF-89F1D9F52D67}"/>
@@ -28638,96 +28645,96 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="198"/>
+    <col min="1" max="16384" width="9.1640625" style="198"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="286" t="s">
+    <row r="1" spans="1:24" ht="12.75" customHeight="1">
+      <c r="A1" s="274" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="287" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="275" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-    </row>
-    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="266" t="s">
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
+      <c r="N1" s="275"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="275"/>
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+    </row>
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A2" s="252" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266" t="s">
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="270" t="s">
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289" t="s">
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="277" t="s">
         <v>335</v>
       </c>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="288"/>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="276"/>
+    </row>
+    <row r="4" spans="1:24" ht="14" thickBot="1">
       <c r="A4" s="259" t="s">
         <v>336</v>
       </c>
@@ -28740,7 +28747,7 @@
       <c r="H4" s="260"/>
       <c r="I4" s="260"/>
       <c r="J4" s="261"/>
-      <c r="K4" s="282" t="s">
+      <c r="K4" s="285" t="s">
         <v>336</v>
       </c>
       <c r="L4" s="260"/>
@@ -28755,90 +28762,90 @@
       <c r="U4" s="260"/>
       <c r="V4" s="261"/>
     </row>
-    <row r="5" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+    <row r="5" spans="1:24" ht="14" thickBot="1">
+      <c r="A5" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="283" t="s">
+      <c r="B5" s="287"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="286" t="s">
         <v>337</v>
       </c>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="284"/>
-      <c r="Q5" s="284"/>
-      <c r="R5" s="284"/>
-      <c r="S5" s="284"/>
-      <c r="T5" s="284"/>
-      <c r="U5" s="284"/>
-      <c r="V5" s="285"/>
-    </row>
-    <row r="6" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="248" t="s">
+      <c r="L5" s="287"/>
+      <c r="M5" s="287"/>
+      <c r="N5" s="287"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="287"/>
+      <c r="Q5" s="287"/>
+      <c r="R5" s="287"/>
+      <c r="S5" s="287"/>
+      <c r="T5" s="287"/>
+      <c r="U5" s="287"/>
+      <c r="V5" s="288"/>
+    </row>
+    <row r="6" spans="1:24" ht="14" thickBot="1">
+      <c r="A6" s="249" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="265" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="248" t="s">
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="249" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="248" t="s">
+      <c r="G6" s="249" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="248" t="s">
+      <c r="H6" s="249" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="248" t="s">
+      <c r="I6" s="249" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="248" t="s">
+      <c r="J6" s="249" t="s">
         <v>299</v>
       </c>
-      <c r="K6" s="248" t="s">
+      <c r="K6" s="249" t="s">
         <v>293</v>
       </c>
-      <c r="L6" s="250" t="s">
+      <c r="L6" s="265" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="251"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="275" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="278" t="s">
         <v>301</v>
       </c>
-      <c r="P6" s="277" t="s">
+      <c r="P6" s="280" t="s">
         <v>302</v>
       </c>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="280" t="s">
+      <c r="Q6" s="281"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="283" t="s">
         <v>303</v>
       </c>
-      <c r="T6" s="248" t="s">
+      <c r="T6" s="249" t="s">
         <v>304</v>
       </c>
-      <c r="U6" s="248" t="s">
+      <c r="U6" s="249" t="s">
         <v>305</v>
       </c>
-      <c r="V6" s="273" t="s">
+      <c r="V6" s="289" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
+    <row r="7" spans="1:24" ht="37" thickBot="1">
+      <c r="A7" s="250"/>
       <c r="B7" s="200" t="s">
         <v>307</v>
       </c>
@@ -28851,12 +28858,12 @@
       <c r="E7" s="200" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="250"/>
       <c r="L7" s="200" t="s">
         <v>311</v>
       </c>
@@ -28866,7 +28873,7 @@
       <c r="N7" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="276"/>
+      <c r="O7" s="279"/>
       <c r="P7" s="223" t="s">
         <v>314</v>
       </c>
@@ -28876,15 +28883,15 @@
       <c r="R7" s="223" t="s">
         <v>316</v>
       </c>
-      <c r="S7" s="281"/>
-      <c r="T7" s="249"/>
-      <c r="U7" s="249"/>
-      <c r="V7" s="274"/>
+      <c r="S7" s="284"/>
+      <c r="T7" s="250"/>
+      <c r="U7" s="250"/>
+      <c r="V7" s="290"/>
       <c r="X7" s="201" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14" thickBot="1">
       <c r="A8" s="224">
         <v>1991</v>
       </c>
@@ -28952,7 +28959,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14" thickBot="1">
       <c r="A9" s="224">
         <v>1992</v>
       </c>
@@ -29020,7 +29027,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14" thickBot="1">
       <c r="A10" s="224">
         <v>1993</v>
       </c>
@@ -29088,7 +29095,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14" thickBot="1">
       <c r="A11" s="224">
         <v>1994</v>
       </c>
@@ -29156,7 +29163,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14" thickBot="1">
       <c r="A12" s="224">
         <v>1995</v>
       </c>
@@ -29224,7 +29231,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14" thickBot="1">
       <c r="A13" s="224">
         <v>1996</v>
       </c>
@@ -29292,7 +29299,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14" thickBot="1">
       <c r="A14" s="224">
         <v>1997</v>
       </c>
@@ -29360,7 +29367,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14" thickBot="1">
       <c r="A15" s="224">
         <v>1998</v>
       </c>
@@ -29428,7 +29435,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14" thickBot="1">
       <c r="A16" s="224">
         <v>1999</v>
       </c>
@@ -29496,7 +29503,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14" thickBot="1">
       <c r="A17" s="224">
         <v>2000</v>
       </c>
@@ -29564,7 +29571,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="14" thickBot="1">
       <c r="A18" s="224">
         <v>2001</v>
       </c>
@@ -29632,7 +29639,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14" thickBot="1">
       <c r="A19" s="224">
         <v>2002</v>
       </c>
@@ -29700,7 +29707,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="14" thickBot="1">
       <c r="A20" s="224">
         <v>2003</v>
       </c>
@@ -29768,7 +29775,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14" thickBot="1">
       <c r="A21" s="224">
         <v>2004</v>
       </c>
@@ -29836,7 +29843,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="14" thickBot="1">
       <c r="A22" s="227">
         <v>2005</v>
       </c>
@@ -29904,7 +29911,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="14" thickBot="1">
       <c r="A23" s="227">
         <v>2006</v>
       </c>
@@ -29972,7 +29979,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="14" thickBot="1">
       <c r="A24" s="227">
         <v>2007</v>
       </c>
@@ -30040,7 +30047,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="14" thickBot="1">
       <c r="A25" s="227">
         <v>2008</v>
       </c>
@@ -30108,7 +30115,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="14" thickBot="1">
       <c r="A26" s="227">
         <v>2009</v>
       </c>
@@ -30176,7 +30183,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="14" thickBot="1">
       <c r="A27" s="227">
         <v>2010</v>
       </c>
@@ -30244,7 +30251,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="14" thickBot="1">
       <c r="A28" s="227">
         <v>2011</v>
       </c>
@@ -30312,7 +30319,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="14" thickBot="1">
       <c r="A29" s="227">
         <v>2012</v>
       </c>
@@ -30380,7 +30387,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="14" thickBot="1">
       <c r="A30" s="227">
         <v>2013</v>
       </c>
@@ -30448,7 +30455,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="14" thickBot="1">
       <c r="A31" s="227">
         <v>2014</v>
       </c>
@@ -30516,7 +30523,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="14" thickBot="1">
       <c r="A32" s="227">
         <v>2015</v>
       </c>
@@ -30584,7 +30591,7 @@
         <v>1.4970105276188301</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="14" thickBot="1">
       <c r="A33" s="227">
         <v>2016</v>
       </c>
@@ -30652,7 +30659,7 @@
         <v>1.520701409260538</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="14" thickBot="1">
       <c r="A34" s="227">
         <v>2017</v>
       </c>
@@ -30720,7 +30727,7 @@
         <v>1.5602620111747803</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="14" thickBot="1">
       <c r="A35" s="227">
         <v>2018</v>
       </c>
@@ -30788,7 +30795,7 @@
         <v>1.617</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="14" thickBot="1">
       <c r="A36" s="227">
         <v>2019</v>
       </c>
@@ -30856,78 +30863,78 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" s="230" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" s="230" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" s="230" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" s="230" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" s="230" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" s="230" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" s="230" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" s="230" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" s="230" t="s">
         <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:V1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="K2:V2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="K3:V3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="K4:V4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="K5:V5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="X7" location="TOC!A1" display="RETURN TO TABLE OF CONTENTS" xr:uid="{FECAC6BC-AB2B-43DA-BBC9-66BD70E07738}"/>
@@ -30944,36 +30951,36 @@
       <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="197" t="s">
         <v>284</v>
       </c>
@@ -30984,7 +30991,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -31001,7 +31008,7 @@
         <v>0.26006618185409108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>253</v>
       </c>
@@ -31032,13 +31039,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>286</v>
       </c>
@@ -31136,7 +31143,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31234,7 +31241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31363,7 +31370,7 @@
         <v>0.28685936361428227</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -31492,7 +31499,7 @@
         <v>0.18670767604320332</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -31621,7 +31628,7 @@
         <v>0.26296126987195634</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31719,7 +31726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -31831,13 +31838,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -31935,7 +31942,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -32033,7 +32040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -32131,7 +32138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32229,7 +32236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32327,7 +32334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32425,7 +32432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>7</v>
       </c>
